--- a/data/Семинары по общей экологии (биологи) 2021.xlsx
+++ b/data/Семинары по общей экологии (биологи) 2021.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_9B7207B3_9183_41E2_B7D8_3D462C4FCB19_.wvu.FilterData">'Лист1'!$E$1:$K$111</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_930173A5_D23E_46E9_A1C7_44FB9EDD6087_.wvu.FilterData">'Лист1'!$E$1:$K$111</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9B7207B3-9183-41E2-B7D8-3D462C4FCB19}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{930173A5-D23E-46E9-A1C7-44FB9EDD6087}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -915,6 +915,8 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -925,7 +927,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1703,7 +1708,9 @@
       <c r="E18" s="5">
         <v>1.0</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1726,7 +1733,9 @@
       <c r="E19" s="5">
         <v>1.0</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1749,7 +1758,9 @@
       <c r="E20" s="5">
         <v>1.5</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1772,7 +1783,9 @@
       <c r="E21" s="5">
         <v>1.5</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1795,7 +1808,9 @@
       <c r="E22" s="5">
         <v>1.5</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1818,7 +1833,9 @@
       <c r="E23" s="5">
         <v>1.5</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1841,7 +1858,9 @@
       <c r="E24" s="5">
         <v>1.5</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1864,7 +1883,9 @@
       <c r="E25" s="5">
         <v>1.0</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1887,7 +1908,9 @@
       <c r="E26" s="5">
         <v>1.5</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1910,7 +1933,9 @@
       <c r="E27" s="5">
         <v>1.5</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1933,7 +1958,9 @@
       <c r="E28" s="5">
         <v>1.5</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1956,7 +1983,9 @@
       <c r="E29" s="5">
         <v>1.5</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1979,7 +2008,9 @@
       <c r="E30" s="5">
         <v>1.0</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2002,7 +2033,9 @@
       <c r="E31" s="5">
         <v>1.0</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2025,7 +2058,9 @@
       <c r="E32" s="5">
         <v>0.0</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5">
+        <v>0.0</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2048,7 +2083,9 @@
       <c r="E33" s="5">
         <v>1.0</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2071,7 +2108,9 @@
       <c r="E34" s="5">
         <v>1.5</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2094,7 +2133,9 @@
       <c r="E35" s="5">
         <v>1.0</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2117,7 +2158,9 @@
       <c r="E36" s="5">
         <v>1.5</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5">
+        <v>1.2</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2140,7 +2183,9 @@
       <c r="E37" s="5">
         <v>1.5</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2163,7 +2208,9 @@
       <c r="E38" s="5">
         <v>1.5</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5">
+        <v>1.2</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -2186,7 +2233,9 @@
       <c r="E39" s="5">
         <v>1.5</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5">
+        <v>0.0</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -2209,7 +2258,9 @@
       <c r="E40" s="5">
         <v>1.0</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5">
+        <v>1.2</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -2232,7 +2283,9 @@
       <c r="E41" s="5">
         <v>0.0</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -2255,7 +2308,9 @@
       <c r="E42" s="5">
         <v>1.5</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5">
+        <v>1.2</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -2278,7 +2333,9 @@
       <c r="E43" s="5">
         <v>1.0</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -2301,7 +2358,9 @@
       <c r="E44" s="5">
         <v>1.5</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -2324,7 +2383,9 @@
       <c r="E45" s="5">
         <v>0.0</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -2347,7 +2408,9 @@
       <c r="E46" s="5">
         <v>1.5</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5">
+        <v>1.2</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -2370,7 +2433,9 @@
       <c r="E47" s="5">
         <v>1.0</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="5">
+        <v>1.3</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -2393,7 +2458,9 @@
       <c r="E48" s="5">
         <v>0.0</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -2416,7 +2483,9 @@
       <c r="E49" s="5">
         <v>0.0</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -2439,7 +2508,9 @@
       <c r="E50" s="5">
         <v>1.5</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -2462,7 +2533,9 @@
       <c r="E51" s="5">
         <v>0.0</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -2485,7 +2558,9 @@
       <c r="E52" s="5">
         <v>1.25</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="5">
+        <v>1.25</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -2508,7 +2583,9 @@
       <c r="E53" s="5">
         <v>1.25</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2531,7 +2608,9 @@
       <c r="E54" s="5">
         <v>1.25</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -2554,7 +2633,9 @@
       <c r="E55" s="5">
         <v>1.0</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="5">
+        <v>1.25</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -2577,7 +2658,9 @@
       <c r="E56" s="5">
         <v>1.5</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -2600,7 +2683,9 @@
       <c r="E57" s="5">
         <v>1.0</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -2623,7 +2708,9 @@
       <c r="E58" s="5">
         <v>1.5</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="5">
+        <v>1.25</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -2646,7 +2733,9 @@
       <c r="E59" s="5">
         <v>0.0</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -2669,7 +2758,9 @@
       <c r="E60" s="5">
         <v>1.0</v>
       </c>
-      <c r="F60" s="5"/>
+      <c r="F60" s="5">
+        <v>1.25</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -2692,7 +2783,9 @@
       <c r="E61" s="5">
         <v>1.0</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="5">
+        <v>1.25</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -2715,7 +2808,9 @@
       <c r="E62" s="5">
         <v>1.0</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="5">
+        <v>1.25</v>
+      </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -2738,7 +2833,9 @@
       <c r="E63" s="5">
         <v>1.25</v>
       </c>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5">
+        <v>1.25</v>
+      </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -2761,7 +2858,9 @@
       <c r="E64" s="5">
         <v>1.5</v>
       </c>
-      <c r="F64" s="5"/>
+      <c r="F64" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -2784,7 +2883,9 @@
       <c r="E65" s="5">
         <v>1.35</v>
       </c>
-      <c r="F65" s="5"/>
+      <c r="F65" s="5">
+        <v>1.0</v>
+      </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -3875,7 +3976,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9B7207B3-9183-41E2-B7D8-3D462C4FCB19}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{930173A5-D23E-46E9-A1C7-44FB9EDD6087}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$K$111"/>
     </customSheetView>
   </customSheetViews>

--- a/data/Семинары по общей экологии (биологи) 2021.xlsx
+++ b/data/Семинары по общей экологии (биологи) 2021.xlsx
@@ -6,17 +6,18 @@
     <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_930173A5_D23E_46E9_A1C7_44FB9EDD6087_.wvu.FilterData">'Лист1'!$E$1:$K$111</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$K$112</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_48934ABD_5A97_430B_BE4D_84F4E50CC8DD_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{930173A5-D23E-46E9-A1C7-44FB9EDD6087}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{48934ABD-5A97-430B-BE4D-84F4E50CC8DD}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="296">
   <si>
     <t>Family</t>
   </si>
@@ -667,6 +668,12 @@
   </si>
   <si>
     <t>st076517@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Озеров</t>
+  </si>
+  <si>
+    <t>Степан</t>
   </si>
   <si>
     <t>Гавриленко</t>
@@ -986,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1004,6 +1011,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1311,20 +1321,22 @@
       <c r="F2" s="5">
         <v>0.0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="G2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="4">
@@ -1336,11 +1348,13 @@
       <c r="F3" s="5">
         <v>1.0</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -1349,7 +1363,7 @@
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4">
@@ -1361,11 +1375,13 @@
       <c r="F4" s="5">
         <v>1.0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -1386,20 +1402,22 @@
       <c r="F5" s="5">
         <v>1.0</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="G5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="4">
@@ -1411,20 +1429,22 @@
       <c r="F6" s="5">
         <v>1.5</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="4">
@@ -1436,20 +1456,22 @@
       <c r="F7" s="5">
         <v>1.0</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="G7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="4">
@@ -1461,20 +1483,22 @@
       <c r="F8" s="5">
         <v>1.5</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="4">
@@ -1486,20 +1510,22 @@
       <c r="F9" s="5">
         <v>1.0</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="G9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="4">
@@ -1511,20 +1537,22 @@
       <c r="F10" s="5">
         <v>1.0</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4">
@@ -1536,11 +1564,13 @@
       <c r="F11" s="5">
         <v>1.5</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="G11" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
@@ -1561,11 +1591,13 @@
       <c r="F12" s="5">
         <v>1.5</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="G12" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
@@ -1586,11 +1618,13 @@
       <c r="F13" s="5">
         <v>1.0</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="G13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
@@ -1599,7 +1633,7 @@
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="4">
@@ -1611,11 +1645,13 @@
       <c r="F14" s="5">
         <v>1.0</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="G14" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
@@ -1636,11 +1672,13 @@
       <c r="F15" s="5">
         <v>1.5</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="G15" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
@@ -1661,11 +1699,13 @@
       <c r="F16" s="5">
         <v>1.5</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="G16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
@@ -1686,20 +1726,22 @@
       <c r="F17" s="5">
         <v>1.5</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="G17" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="4">
@@ -1711,20 +1753,22 @@
       <c r="F18" s="5">
         <v>1.5</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="G18" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="4">
@@ -1736,20 +1780,22 @@
       <c r="F19" s="5">
         <v>1.0</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="G19" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="4">
@@ -1761,11 +1807,13 @@
       <c r="F20" s="5">
         <v>1.5</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="G20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
@@ -1786,11 +1834,13 @@
       <c r="F21" s="5">
         <v>1.5</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="G21" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
@@ -1811,11 +1861,13 @@
       <c r="F22" s="5">
         <v>1.5</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="G22" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
@@ -1836,11 +1888,13 @@
       <c r="F23" s="5">
         <v>1.5</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="G23" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
@@ -1861,11 +1915,13 @@
       <c r="F24" s="5">
         <v>1.5</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="G24" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
@@ -1886,11 +1942,13 @@
       <c r="F25" s="5">
         <v>1.0</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="G25" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
@@ -1911,11 +1969,13 @@
       <c r="F26" s="5">
         <v>1.5</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="G26" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
@@ -1936,11 +1996,13 @@
       <c r="F27" s="5">
         <v>1.0</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="G27" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
@@ -1949,7 +2011,7 @@
       <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D28" s="4">
@@ -1961,11 +2023,13 @@
       <c r="F28" s="5">
         <v>1.5</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="G28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
@@ -1986,11 +2050,13 @@
       <c r="F29" s="5">
         <v>1.5</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="G29" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
@@ -2011,11 +2077,13 @@
       <c r="F30" s="5">
         <v>1.0</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="G30" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
@@ -2036,11 +2104,13 @@
       <c r="F31" s="5">
         <v>1.5</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="G31" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
@@ -2061,11 +2131,13 @@
       <c r="F32" s="5">
         <v>0.0</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="G32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
@@ -2086,11 +2158,13 @@
       <c r="F33" s="5">
         <v>1.0</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="G33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
@@ -2111,11 +2185,12 @@
       <c r="F34" s="5">
         <v>1.5</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="H34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
@@ -2136,11 +2211,12 @@
       <c r="F35" s="5">
         <v>1.0</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="H35" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
@@ -2161,11 +2237,12 @@
       <c r="F36" s="5">
         <v>1.2</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="H36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
@@ -2186,11 +2263,12 @@
       <c r="F37" s="5">
         <v>1.5</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="H37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
@@ -2211,11 +2289,12 @@
       <c r="F38" s="5">
         <v>1.2</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="H38" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -2236,11 +2315,12 @@
       <c r="F39" s="5">
         <v>0.0</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="H39" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -2261,11 +2341,12 @@
       <c r="F40" s="5">
         <v>1.2</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="H40" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -2286,11 +2367,12 @@
       <c r="F41" s="5">
         <v>1.0</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="H41" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -2311,11 +2393,12 @@
       <c r="F42" s="5">
         <v>1.2</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="H42" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -2336,14 +2419,15 @@
       <c r="F43" s="5">
         <v>1.0</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="H43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2361,11 +2445,12 @@
       <c r="F44" s="5">
         <v>1.0</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="H44" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -2386,11 +2471,12 @@
       <c r="F45" s="5">
         <v>1.0</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="H45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
@@ -2411,11 +2497,12 @@
       <c r="F46" s="5">
         <v>1.2</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="H46" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
@@ -2436,11 +2523,12 @@
       <c r="F47" s="5">
         <v>1.3</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="H47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
@@ -2449,7 +2537,7 @@
       <c r="B48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D48" s="4">
@@ -2461,14 +2549,15 @@
       <c r="F48" s="5">
         <v>1.0</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="H48" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2486,11 +2575,12 @@
       <c r="F49" s="5">
         <v>1.5</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="H49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
@@ -2511,11 +2601,13 @@
       <c r="F50" s="5">
         <v>1.5</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="G50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
@@ -2524,7 +2616,7 @@
       <c r="B51" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D51" s="4">
@@ -2536,20 +2628,22 @@
       <c r="F51" s="5">
         <v>1.0</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="G51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D52" s="4">
@@ -2561,20 +2655,22 @@
       <c r="F52" s="5">
         <v>1.25</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="G52" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D53" s="4">
@@ -2586,20 +2682,22 @@
       <c r="F53" s="5">
         <v>1.5</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="G53" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D54" s="4">
@@ -2611,20 +2709,22 @@
       <c r="F54" s="5">
         <v>1.5</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="G54" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D55" s="4">
@@ -2636,20 +2736,22 @@
       <c r="F55" s="5">
         <v>1.25</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="G55" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="14" t="s">
         <v>156</v>
       </c>
       <c r="D56" s="4">
@@ -2661,20 +2763,22 @@
       <c r="F56" s="5">
         <v>1.5</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="G56" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D57" s="4">
@@ -2686,20 +2790,22 @@
       <c r="F57" s="5">
         <v>1.5</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="G57" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>160</v>
       </c>
       <c r="D58" s="4">
@@ -2711,11 +2817,13 @@
       <c r="F58" s="5">
         <v>1.25</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="G58" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
@@ -2724,7 +2832,7 @@
       <c r="B59" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D59" s="4">
@@ -2736,20 +2844,22 @@
       <c r="F59" s="5">
         <v>1.0</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="G59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D60" s="4">
@@ -2761,20 +2871,22 @@
       <c r="F60" s="5">
         <v>1.25</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="G60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>167</v>
       </c>
       <c r="D61" s="4">
@@ -2786,11 +2898,13 @@
       <c r="F61" s="5">
         <v>1.25</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="G61" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
@@ -2811,11 +2925,13 @@
       <c r="F62" s="5">
         <v>1.25</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="G62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
@@ -2836,11 +2952,13 @@
       <c r="F63" s="5">
         <v>1.25</v>
       </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="G63" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
@@ -2861,11 +2979,13 @@
       <c r="F64" s="5">
         <v>1.5</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
+      <c r="G64" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
@@ -2886,11 +3006,13 @@
       <c r="F65" s="5">
         <v>1.0</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="G65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
@@ -2899,19 +3021,23 @@
       <c r="B66" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="12" t="s">
         <v>179</v>
       </c>
       <c r="D66" s="4">
         <v>5.0</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
@@ -2926,13 +3052,17 @@
       <c r="D67" s="4">
         <v>5.0</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
@@ -2947,13 +3077,17 @@
       <c r="D68" s="4">
         <v>5.0</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
@@ -2968,13 +3102,17 @@
       <c r="D69" s="4">
         <v>5.0</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
@@ -2989,13 +3127,15 @@
       <c r="D70" s="4">
         <v>5.0</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
@@ -3010,34 +3150,42 @@
       <c r="D71" s="4">
         <v>5.0</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D72" s="4">
         <v>5.0</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
@@ -3052,13 +3200,17 @@
       <c r="D73" s="4">
         <v>5.0</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
@@ -3073,13 +3225,17 @@
       <c r="D74" s="4">
         <v>5.0</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
@@ -3094,13 +3250,15 @@
       <c r="D75" s="4">
         <v>5.0</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
@@ -3115,13 +3273,17 @@
       <c r="D76" s="4">
         <v>5.0</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
@@ -3136,13 +3298,17 @@
       <c r="D77" s="4">
         <v>5.0</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H77" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
@@ -3151,19 +3317,23 @@
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="13" t="s">
         <v>211</v>
       </c>
       <c r="D78" s="4">
         <v>5.0</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H78" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
@@ -3178,13 +3348,17 @@
       <c r="D79" s="4">
         <v>5.0</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
@@ -3199,48 +3373,48 @@
       <c r="D80" s="4">
         <v>5.0</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H80" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D81" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E81" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F81" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="D82" s="4">
         <v>6.0</v>
@@ -3249,23 +3423,27 @@
         <v>1.0</v>
       </c>
       <c r="F82" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H82" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="D83" s="4">
         <v>6.0</v>
@@ -3274,23 +3452,27 @@
         <v>1.0</v>
       </c>
       <c r="F83" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="D84" s="4">
         <v>6.0</v>
@@ -3299,71 +3481,83 @@
         <v>1.0</v>
       </c>
       <c r="F84" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>229</v>
       </c>
       <c r="D85" s="4">
         <v>6.0</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="E85" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H85" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>231</v>
       </c>
       <c r="D86" s="4">
         <v>6.0</v>
       </c>
-      <c r="E86" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F86" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H86" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="D87" s="4">
         <v>6.0</v>
@@ -3372,45 +3566,53 @@
         <v>1.0</v>
       </c>
       <c r="F87" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H87" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="8" t="s">
         <v>236</v>
       </c>
       <c r="D88" s="4">
         <v>6.0</v>
       </c>
       <c r="E88" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F88" s="5">
         <v>1.5</v>
       </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="G88" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>238</v>
@@ -3419,23 +3621,27 @@
         <v>6.0</v>
       </c>
       <c r="E89" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F89" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H89" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>240</v>
@@ -3447,20 +3653,24 @@
         <v>1.0</v>
       </c>
       <c r="F90" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H90" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>242</v>
@@ -3474,21 +3684,25 @@
       <c r="F91" s="5">
         <v>1.5</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
+      <c r="G91" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H91" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D92" s="4">
         <v>6.0</v>
@@ -3499,18 +3713,22 @@
       <c r="F92" s="5">
         <v>1.5</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+      <c r="G92" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>247</v>
@@ -3519,92 +3737,108 @@
         <v>6.0</v>
       </c>
       <c r="E93" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F93" s="5">
         <v>1.5</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+      <c r="G93" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H93" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="D94" s="4">
         <v>6.0</v>
       </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
+      <c r="E94" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H94" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="D95" s="4">
         <v>6.0</v>
       </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H95" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D96" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F96" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
+        <v>6.0</v>
+      </c>
+      <c r="E96" s="15"/>
+      <c r="F96" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H96" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>257</v>
@@ -3613,23 +3847,25 @@
         <v>7.0</v>
       </c>
       <c r="E97" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F97" s="5">
         <v>1.0</v>
       </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
+      <c r="G97" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>259</v>
@@ -3638,26 +3874,28 @@
         <v>7.0</v>
       </c>
       <c r="E98" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F98" s="5">
         <v>1.0</v>
       </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
+      <c r="G98" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D99" s="4">
         <v>7.0</v>
@@ -3668,46 +3906,50 @@
       <c r="F99" s="5">
         <v>1.0</v>
       </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
+      <c r="G99" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D100" s="4">
         <v>7.0</v>
       </c>
       <c r="E100" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F100" s="5">
         <v>1.0</v>
       </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
+      <c r="G100" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="D101" s="4">
         <v>7.0</v>
@@ -3718,21 +3960,23 @@
       <c r="F101" s="5">
         <v>1.0</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
+      <c r="G101" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D102" s="4">
         <v>7.0</v>
@@ -3743,18 +3987,20 @@
       <c r="F102" s="5">
         <v>1.0</v>
       </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
+      <c r="G102" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>273</v>
@@ -3763,73 +4009,79 @@
         <v>7.0</v>
       </c>
       <c r="E103" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F103" s="5">
         <v>1.0</v>
       </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
+      <c r="G103" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="D104" s="4">
         <v>7.0</v>
       </c>
       <c r="E104" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F104" s="5">
         <v>1.0</v>
       </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
+      <c r="G104" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D105" s="4">
         <v>7.0</v>
       </c>
       <c r="E105" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F105" s="5">
         <v>1.0</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
+      <c r="G105" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>281</v>
@@ -3843,46 +4095,50 @@
       <c r="F106" s="5">
         <v>1.0</v>
       </c>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
+      <c r="G106" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>283</v>
       </c>
       <c r="D107" s="4">
         <v>7.0</v>
       </c>
       <c r="E107" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F107" s="5">
         <v>1.0</v>
       </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
+      <c r="G107" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D108" s="4">
         <v>7.0</v>
@@ -3893,18 +4149,20 @@
       <c r="F108" s="5">
         <v>1.0</v>
       </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
+      <c r="G108" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>288</v>
@@ -3918,18 +4176,20 @@
       <c r="F109" s="5">
         <v>1.0</v>
       </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
+      <c r="G109" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>290</v>
@@ -3943,21 +4203,23 @@
       <c r="F110" s="5">
         <v>1.0</v>
       </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
+      <c r="G110" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D111" s="4">
         <v>7.0</v>
@@ -3968,16 +4230,46 @@
       <c r="F111" s="5">
         <v>1.0</v>
       </c>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
+      <c r="G111" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D112" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G112" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$K$112"/>
   <customSheetViews>
-    <customSheetView guid="{930173A5-D23E-46E9-A1C7-44FB9EDD6087}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$E$1:$K$111"/>
+    <customSheetView guid="{48934ABD-5A97-430B-BE4D-84F4E50CC8DD}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$E$1:$K$112"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -3986,9 +4278,9 @@
     <hyperlink r:id="rId3" ref="C56"/>
     <hyperlink r:id="rId4" ref="C59"/>
     <hyperlink r:id="rId5" ref="C66"/>
-    <hyperlink r:id="rId6" ref="C81"/>
-    <hyperlink r:id="rId7" ref="C82"/>
-    <hyperlink r:id="rId8" ref="C107"/>
+    <hyperlink r:id="rId6" ref="C82"/>
+    <hyperlink r:id="rId7" ref="C83"/>
+    <hyperlink r:id="rId8" ref="C108"/>
   </hyperlinks>
   <drawing r:id="rId9"/>
 </worksheet>

--- a/data/Семинары по общей экологии (биологи) 2021.xlsx
+++ b/data/Семинары по общей экологии (биологи) 2021.xlsx
@@ -7,17 +7,17 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$K$112</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_48934ABD_5A97_430B_BE4D_84F4E50CC8DD_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AD51CE2C_1CCD_4304_A20A_FD632997456E_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{48934ABD-5A97-430B-BE4D-84F4E50CC8DD}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AD51CE2C-1CCD-4304-A20A-FD632997456E}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="297">
   <si>
     <t>Family</t>
   </si>
@@ -439,6 +439,108 @@
     <t>st090747@student.spbu.ru</t>
   </si>
   <si>
+    <t>Давыдова</t>
+  </si>
+  <si>
+    <t>st090259@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Бйелогрлич</t>
+  </si>
+  <si>
+    <t>Наджа</t>
+  </si>
+  <si>
+    <t>st082207@ad.pu.ru</t>
+  </si>
+  <si>
+    <t>Дубровский</t>
+  </si>
+  <si>
+    <t>st085322@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Земсков</t>
+  </si>
+  <si>
+    <t>st076066@ad.pu.ru</t>
+  </si>
+  <si>
+    <t>Зубкова</t>
+  </si>
+  <si>
+    <t>st085662@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Исхакова</t>
+  </si>
+  <si>
+    <t>Элина</t>
+  </si>
+  <si>
+    <t>st085111@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Иштуганова</t>
+  </si>
+  <si>
+    <t>st086860@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Кандаловская</t>
+  </si>
+  <si>
+    <t>st075815@ad.pu.ru</t>
+  </si>
+  <si>
+    <t>Кнежевич</t>
+  </si>
+  <si>
+    <t>Тамара</t>
+  </si>
+  <si>
+    <t>st082342@ad.pu.ru</t>
+  </si>
+  <si>
+    <t>Курячий</t>
+  </si>
+  <si>
+    <t>st087101@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Ландынья</t>
+  </si>
+  <si>
+    <t>st087399@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Марушко</t>
+  </si>
+  <si>
+    <t>st087488@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Медведева</t>
+  </si>
+  <si>
+    <t>st084927@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Степучев</t>
+  </si>
+  <si>
+    <t>st087999@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Сухенко</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>st089878@student.spbu.ru</t>
+  </si>
+  <si>
     <t>Байазыт</t>
   </si>
   <si>
@@ -448,108 +550,6 @@
     <t>st089270@student.spbu.ru</t>
   </si>
   <si>
-    <t>Бйелогрлич</t>
-  </si>
-  <si>
-    <t>Наджа</t>
-  </si>
-  <si>
-    <t>st082207@ad.pu.ru</t>
-  </si>
-  <si>
-    <t>Давыдова</t>
-  </si>
-  <si>
-    <t>st090259@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Дубровский</t>
-  </si>
-  <si>
-    <t>st085322@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Земсков</t>
-  </si>
-  <si>
-    <t>st076066@ad.pu.ru</t>
-  </si>
-  <si>
-    <t>Зубкова</t>
-  </si>
-  <si>
-    <t>st085662@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Исхакова</t>
-  </si>
-  <si>
-    <t>Элина</t>
-  </si>
-  <si>
-    <t>st085111@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Иштуганова</t>
-  </si>
-  <si>
-    <t>st086860@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Кандаловская</t>
-  </si>
-  <si>
-    <t>st075815@ad.pu.ru</t>
-  </si>
-  <si>
-    <t>Кнежевич</t>
-  </si>
-  <si>
-    <t>Тамара</t>
-  </si>
-  <si>
-    <t>st082342@ad.pu.ru</t>
-  </si>
-  <si>
-    <t>Курячий</t>
-  </si>
-  <si>
-    <t>st087101@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Ландынья</t>
-  </si>
-  <si>
-    <t>st087399@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Марушко</t>
-  </si>
-  <si>
-    <t>st087488@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Медведева</t>
-  </si>
-  <si>
-    <t>st084927@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Степучев</t>
-  </si>
-  <si>
-    <t>st087999@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Сухенко</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>st089878@student.spbu.ru</t>
-  </si>
-  <si>
     <t>Абылай</t>
   </si>
   <si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>Степан</t>
+  </si>
+  <si>
+    <t>st071537@student.spbu.ru</t>
   </si>
   <si>
     <t>Гавриленко</t>
@@ -914,7 +917,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -949,6 +952,7 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF242424"/>
@@ -965,6 +969,10 @@
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF5C6993"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -993,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1019,29 +1027,45 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,8 +1348,12 @@
       <c r="G2" s="6">
         <v>1.0</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.0</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
@@ -1351,8 +1379,12 @@
       <c r="G3" s="6">
         <v>1.0</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.25</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
@@ -1363,7 +1395,7 @@
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4">
@@ -1378,8 +1410,12 @@
       <c r="G4" s="6">
         <v>1.0</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1.5</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
@@ -1405,8 +1441,12 @@
       <c r="G5" s="6">
         <v>1.0</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.0</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
@@ -1432,8 +1472,12 @@
       <c r="G6" s="6">
         <v>1.5</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.25</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
@@ -1459,8 +1503,12 @@
       <c r="G7" s="6">
         <v>1.5</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.25</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
@@ -1486,8 +1534,12 @@
       <c r="G8" s="6">
         <v>1.5</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.0</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
@@ -1508,13 +1560,17 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="6">
         <v>1.5</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.5</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
@@ -1525,7 +1581,7 @@
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="4">
@@ -1540,8 +1596,12 @@
       <c r="G10" s="6">
         <v>1.5</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.5</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
@@ -1567,8 +1627,12 @@
       <c r="G11" s="6">
         <v>1.5</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.0</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
@@ -1594,8 +1658,12 @@
       <c r="G12" s="6">
         <v>1.5</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.25</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
@@ -1621,8 +1689,12 @@
       <c r="G13" s="6">
         <v>1.0</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.0</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
@@ -1633,7 +1705,7 @@
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="4">
@@ -1648,8 +1720,12 @@
       <c r="G14" s="6">
         <v>1.5</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.0</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
@@ -1675,8 +1751,12 @@
       <c r="G15" s="6">
         <v>1.5</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1.25</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
@@ -1702,8 +1782,12 @@
       <c r="G16" s="6">
         <v>1.0</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1.5</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
@@ -1729,8 +1813,12 @@
       <c r="G17" s="6">
         <v>1.5</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.5</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
@@ -1756,9 +1844,13 @@
       <c r="G18" s="6">
         <v>1.2</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="H18" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K18" s="7"/>
     </row>
     <row r="19">
@@ -1783,9 +1875,13 @@
       <c r="G19" s="6">
         <v>1.0</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="H19" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K19" s="7"/>
     </row>
     <row r="20">
@@ -1810,9 +1906,13 @@
       <c r="G20" s="6">
         <v>1.5</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21">
@@ -1837,9 +1937,13 @@
       <c r="G21" s="6">
         <v>1.5</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K21" s="7"/>
     </row>
     <row r="22">
@@ -1864,9 +1968,13 @@
       <c r="G22" s="6">
         <v>1.5</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K22" s="7"/>
     </row>
     <row r="23">
@@ -1891,9 +1999,13 @@
       <c r="G23" s="6">
         <v>1.5</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K23" s="7"/>
     </row>
     <row r="24">
@@ -1918,9 +2030,13 @@
       <c r="G24" s="6">
         <v>1.2</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K24" s="7"/>
     </row>
     <row r="25">
@@ -1945,9 +2061,13 @@
       <c r="G25" s="6">
         <v>1.4</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K25" s="7"/>
     </row>
     <row r="26">
@@ -1972,9 +2092,13 @@
       <c r="G26" s="6">
         <v>1.5</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="6">
+        <v>1.0</v>
+      </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K26" s="7"/>
     </row>
     <row r="27">
@@ -1999,9 +2123,13 @@
       <c r="G27" s="6">
         <v>1.2</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K27" s="7"/>
     </row>
     <row r="28">
@@ -2011,7 +2139,7 @@
       <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D28" s="4">
@@ -2026,9 +2154,13 @@
       <c r="G28" s="6">
         <v>0.0</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="6">
+        <v>1.5</v>
+      </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K28" s="7"/>
     </row>
     <row r="29">
@@ -2053,9 +2185,13 @@
       <c r="G29" s="6">
         <v>1.1</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K29" s="7"/>
     </row>
     <row r="30">
@@ -2080,9 +2216,13 @@
       <c r="G30" s="6">
         <v>1.3</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K30" s="7"/>
     </row>
     <row r="31">
@@ -2107,9 +2247,13 @@
       <c r="G31" s="6">
         <v>1.1</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K31" s="7"/>
     </row>
     <row r="32">
@@ -2134,7 +2278,9 @@
       <c r="G32" s="6">
         <v>1.0</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="9">
+        <v>1.25</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -2161,9 +2307,13 @@
       <c r="G33" s="6">
         <v>0.0</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6">
+        <v>1.5</v>
+      </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K33" s="7"/>
     </row>
     <row r="34">
@@ -2188,8 +2338,12 @@
       <c r="H34" s="6">
         <v>1.0</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="I34" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J34" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K34" s="7"/>
     </row>
     <row r="35">
@@ -2211,11 +2365,18 @@
       <c r="F35" s="5">
         <v>1.0</v>
       </c>
+      <c r="G35" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H35" s="6">
         <v>1.0</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="I35" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0.0</v>
+      </c>
       <c r="K35" s="7"/>
     </row>
     <row r="36">
@@ -2237,11 +2398,18 @@
       <c r="F36" s="5">
         <v>1.2</v>
       </c>
+      <c r="G36" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H36" s="6">
         <v>1.0</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K36" s="7"/>
     </row>
     <row r="37">
@@ -2263,11 +2431,18 @@
       <c r="F37" s="5">
         <v>1.5</v>
       </c>
+      <c r="G37" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H37" s="6">
         <v>1.0</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K37" s="7"/>
     </row>
     <row r="38">
@@ -2292,8 +2467,12 @@
       <c r="H38" s="6">
         <v>1.0</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="I38" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K38" s="7"/>
     </row>
     <row r="39">
@@ -2315,11 +2494,18 @@
       <c r="F39" s="5">
         <v>0.0</v>
       </c>
+      <c r="G39" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H39" s="6">
         <v>1.5</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="I39" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J39" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K39" s="7"/>
     </row>
     <row r="40">
@@ -2341,11 +2527,18 @@
       <c r="F40" s="5">
         <v>1.2</v>
       </c>
+      <c r="G40" s="14">
+        <v>1.0</v>
+      </c>
       <c r="H40" s="6">
         <v>1.0</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K40" s="7"/>
     </row>
     <row r="41">
@@ -2370,8 +2563,12 @@
       <c r="H41" s="6">
         <v>1.0</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="I41" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0.0</v>
+      </c>
       <c r="K41" s="7"/>
     </row>
     <row r="42">
@@ -2393,11 +2590,18 @@
       <c r="F42" s="5">
         <v>1.2</v>
       </c>
+      <c r="G42" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H42" s="6">
         <v>1.0</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="I42" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J42" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K42" s="7"/>
     </row>
     <row r="43">
@@ -2419,15 +2623,22 @@
       <c r="F43" s="5">
         <v>1.0</v>
       </c>
+      <c r="G43" s="14">
+        <v>1.0</v>
+      </c>
       <c r="H43" s="6">
         <v>0.0</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="I43" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K43" s="7"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2445,11 +2656,18 @@
       <c r="F44" s="5">
         <v>1.0</v>
       </c>
+      <c r="G44" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H44" s="6">
         <v>1.0</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K44" s="7"/>
     </row>
     <row r="45">
@@ -2471,11 +2689,16 @@
       <c r="F45" s="5">
         <v>1.0</v>
       </c>
+      <c r="G45" s="14">
+        <v>1.0</v>
+      </c>
       <c r="H45" s="6">
         <v>0.0</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="J45" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K45" s="7"/>
     </row>
     <row r="46">
@@ -2497,11 +2720,18 @@
       <c r="F46" s="5">
         <v>1.2</v>
       </c>
+      <c r="G46" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H46" s="6">
         <v>1.0</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="I46" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J46" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K46" s="7"/>
     </row>
     <row r="47">
@@ -2523,11 +2753,18 @@
       <c r="F47" s="5">
         <v>1.3</v>
       </c>
+      <c r="G47" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H47" s="6">
         <v>0.0</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="I47" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K47" s="7"/>
     </row>
     <row r="48">
@@ -2537,7 +2774,7 @@
       <c r="B48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D48" s="4">
@@ -2552,12 +2789,16 @@
       <c r="H48" s="6">
         <v>1.0</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="I48" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J48" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K48" s="7"/>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2575,49 +2816,62 @@
       <c r="F49" s="5">
         <v>1.5</v>
       </c>
+      <c r="G49" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H49" s="6">
         <v>0.0</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="I49" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J49" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K49" s="7"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="D50" s="4">
         <v>4.0</v>
       </c>
       <c r="E50" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F50" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+        <v>1.0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J50" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K50" s="7"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="D51" s="4">
         <v>4.0</v>
@@ -2632,19 +2886,23 @@
         <v>0.0</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="I51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K51" s="7"/>
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D52" s="4">
         <v>4.0</v>
@@ -2653,25 +2911,31 @@
         <v>1.25</v>
       </c>
       <c r="F52" s="5">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G52" s="6">
         <v>1.0</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="H52" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J52" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K52" s="7"/>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D53" s="4">
         <v>4.0</v>
@@ -2685,63 +2949,81 @@
       <c r="G53" s="6">
         <v>1.0</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="H53" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K53" s="7"/>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="D54" s="4">
         <v>4.0</v>
       </c>
       <c r="E54" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F54" s="5">
         <v>1.25</v>
       </c>
-      <c r="F54" s="5">
-        <v>1.5</v>
-      </c>
       <c r="G54" s="6">
         <v>1.0</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="H54" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J54" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K54" s="7"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="18" t="s">
         <v>153</v>
       </c>
       <c r="D55" s="4">
         <v>4.0</v>
       </c>
       <c r="E55" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F55" s="5">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G55" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J55" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K55" s="7"/>
     </row>
     <row r="56">
@@ -2749,118 +3031,140 @@
         <v>154</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="D56" s="4">
         <v>4.0</v>
       </c>
       <c r="E56" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F56" s="5">
         <v>1.5</v>
       </c>
       <c r="G56" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K56" s="7"/>
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="D57" s="4">
         <v>4.0</v>
       </c>
       <c r="E57" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F57" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G57" s="6">
         <v>1.0</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="H57" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J57" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K57" s="7"/>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D58" s="4">
         <v>4.0</v>
       </c>
       <c r="E58" s="5">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="F58" s="5">
-        <v>1.25</v>
+        <v>1.0</v>
       </c>
       <c r="G58" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+        <v>0.0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K58" s="7"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="D59" s="4">
         <v>4.0</v>
       </c>
       <c r="E59" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F59" s="5">
-        <v>1.0</v>
+        <v>1.25</v>
       </c>
       <c r="G59" s="6">
         <v>0.0</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="I59" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J59" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K59" s="7"/>
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="D60" s="4">
         <v>4.0</v>
@@ -2872,22 +3176,28 @@
         <v>1.25</v>
       </c>
       <c r="G60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J60" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K60" s="7"/>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D61" s="4">
         <v>4.0</v>
@@ -2899,73 +3209,91 @@
         <v>1.25</v>
       </c>
       <c r="G61" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J61" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D62" s="4">
         <v>4.0</v>
       </c>
       <c r="E62" s="5">
-        <v>1.0</v>
+        <v>1.25</v>
       </c>
       <c r="F62" s="5">
         <v>1.25</v>
       </c>
       <c r="G62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+        <v>1.0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J62" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K62" s="7"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D63" s="4">
         <v>4.0</v>
       </c>
       <c r="E63" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G63" s="6">
         <v>1.25</v>
       </c>
-      <c r="F63" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="G63" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="H63" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J63" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K63" s="7"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>173</v>
@@ -2974,17 +3302,23 @@
         <v>4.0</v>
       </c>
       <c r="E64" s="5">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="F64" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="G64" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+        <v>1.0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J64" s="13">
+        <v>1.0</v>
+      </c>
       <c r="K64" s="7"/>
     </row>
     <row r="65">
@@ -3001,17 +3335,21 @@
         <v>4.0</v>
       </c>
       <c r="E65" s="5">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="F65" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="G65" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="I65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J65" s="13">
+        <v>0.0</v>
+      </c>
       <c r="K65" s="7"/>
     </row>
     <row r="66">
@@ -3021,22 +3359,26 @@
       <c r="B66" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D66" s="4">
         <v>5.0</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="6">
         <v>1.5</v>
       </c>
       <c r="H66" s="6">
         <v>1.5</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K66" s="7"/>
     </row>
     <row r="67">
@@ -3052,16 +3394,20 @@
       <c r="D67" s="4">
         <v>5.0</v>
       </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
       <c r="G67" s="6">
         <v>1.5</v>
       </c>
       <c r="H67" s="6">
         <v>1.0</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="I67" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K67" s="7"/>
     </row>
     <row r="68">
@@ -3077,16 +3423,20 @@
       <c r="D68" s="4">
         <v>5.0</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
       <c r="G68" s="6">
         <v>1.5</v>
       </c>
       <c r="H68" s="6">
         <v>0.0</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="I68" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K68" s="7"/>
     </row>
     <row r="69">
@@ -3102,16 +3452,20 @@
       <c r="D69" s="4">
         <v>5.0</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="6">
         <v>1.0</v>
       </c>
       <c r="H69" s="6">
         <v>1.0</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="I69" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K69" s="7"/>
     </row>
     <row r="70">
@@ -3127,14 +3481,18 @@
       <c r="D70" s="4">
         <v>5.0</v>
       </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
         <v>0.0</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K70" s="7"/>
     </row>
     <row r="71">
@@ -3150,16 +3508,20 @@
       <c r="D71" s="4">
         <v>5.0</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
       <c r="G71" s="6">
         <v>1.0</v>
       </c>
       <c r="H71" s="6">
         <v>1.0</v>
       </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="I71" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K71" s="7"/>
     </row>
     <row r="72">
@@ -3175,16 +3537,20 @@
       <c r="D72" s="4">
         <v>5.0</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
       <c r="G72" s="6">
         <v>1.5</v>
       </c>
       <c r="H72" s="6">
         <v>1.5</v>
       </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="I72" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J72" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K72" s="7"/>
     </row>
     <row r="73">
@@ -3200,16 +3566,20 @@
       <c r="D73" s="4">
         <v>5.0</v>
       </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="6">
         <v>1.0</v>
       </c>
       <c r="H73" s="6">
         <v>1.0</v>
       </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K73" s="7"/>
     </row>
     <row r="74">
@@ -3225,16 +3595,20 @@
       <c r="D74" s="4">
         <v>5.0</v>
       </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
       <c r="G74" s="6">
         <v>1.0</v>
       </c>
       <c r="H74" s="6">
         <v>1.5</v>
       </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="I74" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K74" s="7"/>
     </row>
     <row r="75">
@@ -3250,14 +3624,20 @@
       <c r="D75" s="4">
         <v>5.0</v>
       </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
       <c r="G75" s="6">
         <v>1.5</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="H75" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K75" s="7"/>
     </row>
     <row r="76">
@@ -3273,16 +3653,20 @@
       <c r="D76" s="4">
         <v>5.0</v>
       </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
       <c r="G76" s="6">
         <v>1.2</v>
       </c>
       <c r="H76" s="6">
         <v>0.0</v>
       </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="I76" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K76" s="7"/>
     </row>
     <row r="77">
@@ -3298,16 +3682,20 @@
       <c r="D77" s="4">
         <v>5.0</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
       <c r="G77" s="6">
         <v>1.4</v>
       </c>
       <c r="H77" s="6">
         <v>1.5</v>
       </c>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="I77" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K77" s="7"/>
     </row>
     <row r="78">
@@ -3317,22 +3705,26 @@
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="17" t="s">
         <v>211</v>
       </c>
       <c r="D78" s="4">
         <v>5.0</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
       <c r="G78" s="6">
         <v>1.5</v>
       </c>
       <c r="H78" s="6">
         <v>1.5</v>
       </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="I78" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J78" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K78" s="7"/>
     </row>
     <row r="79">
@@ -3348,16 +3740,20 @@
       <c r="D79" s="4">
         <v>5.0</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
       <c r="G79" s="6">
         <v>1.0</v>
       </c>
       <c r="H79" s="6">
         <v>0.0</v>
       </c>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="I79" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J79" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K79" s="7"/>
     </row>
     <row r="80">
@@ -3373,16 +3769,20 @@
       <c r="D80" s="4">
         <v>5.0</v>
       </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
       <c r="G80" s="6">
         <v>1.0</v>
       </c>
       <c r="H80" s="6">
         <v>1.5</v>
       </c>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="I80" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J80" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K80" s="7"/>
     </row>
     <row r="81">
@@ -3392,7 +3792,9 @@
       <c r="B81" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C81" s="12"/>
+      <c r="C81" s="20" t="s">
+        <v>219</v>
+      </c>
       <c r="D81" s="4">
         <v>5.0</v>
       </c>
@@ -3402,19 +3804,21 @@
       <c r="H81" s="6">
         <v>1.0</v>
       </c>
-      <c r="I81" s="7"/>
+      <c r="I81" s="6">
+        <v>0.0</v>
+      </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>220</v>
+      <c r="C82" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="D82" s="4">
         <v>6.0</v>
@@ -3431,19 +3835,21 @@
       <c r="H82" s="6">
         <v>0.0</v>
       </c>
-      <c r="I82" s="7"/>
+      <c r="I82" s="6">
+        <v>0.0</v>
+      </c>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
     </row>
     <row r="83">
       <c r="A83" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" s="14" t="s">
         <v>223</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="D83" s="4">
         <v>6.0</v>
@@ -3460,19 +3866,21 @@
       <c r="H83" s="6">
         <v>1.5</v>
       </c>
-      <c r="I83" s="7"/>
+      <c r="I83" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
     </row>
     <row r="84">
       <c r="A84" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D84" s="4">
         <v>6.0</v>
@@ -3489,19 +3897,21 @@
       <c r="H84" s="6">
         <v>1.5</v>
       </c>
-      <c r="I84" s="7"/>
+      <c r="I84" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
     </row>
     <row r="85">
       <c r="A85" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D85" s="4">
         <v>6.0</v>
@@ -3513,30 +3923,32 @@
         <v>1.5</v>
       </c>
       <c r="G85" s="6">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H85" s="6">
         <v>1.5</v>
       </c>
-      <c r="I85" s="7"/>
+      <c r="I85" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
     </row>
     <row r="86">
       <c r="A86" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D86" s="4">
         <v>6.0</v>
       </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="16">
+      <c r="E86" s="19"/>
+      <c r="F86" s="21">
         <v>1.5</v>
       </c>
       <c r="G86" s="6">
@@ -3545,19 +3957,21 @@
       <c r="H86" s="6">
         <v>1.5</v>
       </c>
-      <c r="I86" s="7"/>
+      <c r="I86" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D87" s="4">
         <v>6.0</v>
@@ -3574,19 +3988,21 @@
       <c r="H87" s="6">
         <v>1.5</v>
       </c>
-      <c r="I87" s="7"/>
+      <c r="I87" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D88" s="4">
         <v>6.0</v>
@@ -3603,19 +4019,21 @@
       <c r="H88" s="6">
         <v>1.5</v>
       </c>
-      <c r="I88" s="7"/>
+      <c r="I88" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D89" s="4">
         <v>6.0</v>
@@ -3632,19 +4050,21 @@
       <c r="H89" s="6">
         <v>1.5</v>
       </c>
-      <c r="I89" s="7"/>
+      <c r="I89" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D90" s="4">
         <v>6.0</v>
@@ -3661,19 +4081,21 @@
       <c r="H90" s="6">
         <v>1.5</v>
       </c>
-      <c r="I90" s="7"/>
+      <c r="I90" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D91" s="4">
         <v>6.0</v>
@@ -3690,19 +4112,21 @@
       <c r="H91" s="6">
         <v>1.0</v>
       </c>
-      <c r="I91" s="7"/>
+      <c r="I91" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D92" s="4">
         <v>6.0</v>
@@ -3719,19 +4143,21 @@
       <c r="H92" s="6">
         <v>1.0</v>
       </c>
-      <c r="I92" s="7"/>
+      <c r="I92" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D93" s="4">
         <v>6.0</v>
@@ -3748,19 +4174,21 @@
       <c r="H93" s="6">
         <v>1.0</v>
       </c>
-      <c r="I93" s="7"/>
+      <c r="I93" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D94" s="4">
         <v>6.0</v>
@@ -3777,50 +4205,56 @@
       <c r="H94" s="6">
         <v>1.5</v>
       </c>
-      <c r="I94" s="7"/>
+      <c r="I94" s="6">
+        <v>1.5</v>
+      </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D95" s="4">
         <v>6.0</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
       <c r="G95" s="6">
         <v>1.2</v>
       </c>
       <c r="H95" s="6">
         <v>1.5</v>
       </c>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+      <c r="I95" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J95" s="13">
+        <v>1.5</v>
+      </c>
       <c r="K95" s="7"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D96" s="4">
         <v>6.0</v>
       </c>
-      <c r="E96" s="15"/>
-      <c r="F96" s="16">
+      <c r="E96" s="19"/>
+      <c r="F96" s="21">
         <v>1.0</v>
       </c>
       <c r="G96" s="6">
@@ -3829,19 +4263,23 @@
       <c r="H96" s="6">
         <v>1.0</v>
       </c>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
+      <c r="I96" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J96" s="22">
+        <v>1.0</v>
+      </c>
       <c r="K96" s="7"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D97" s="4">
         <v>7.0</v>
@@ -3855,20 +4293,26 @@
       <c r="G97" s="6">
         <v>1.0</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+      <c r="H97" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J97" s="22">
+        <v>1.25</v>
+      </c>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D98" s="4">
         <v>7.0</v>
@@ -3882,20 +4326,26 @@
       <c r="G98" s="6">
         <v>1.0</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+      <c r="H98" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="22">
+        <v>1.5</v>
+      </c>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D99" s="4">
         <v>7.0</v>
@@ -3909,20 +4359,26 @@
       <c r="G99" s="6">
         <v>1.0</v>
       </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
+      <c r="H99" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J99" s="22">
+        <v>1.2</v>
+      </c>
       <c r="K99" s="7"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D100" s="4">
         <v>7.0</v>
@@ -3936,20 +4392,26 @@
       <c r="G100" s="6">
         <v>1.0</v>
       </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
+      <c r="H100" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="22">
+        <v>0.0</v>
+      </c>
       <c r="K100" s="7"/>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D101" s="4">
         <v>7.0</v>
@@ -3963,20 +4425,26 @@
       <c r="G101" s="6">
         <v>1.5</v>
       </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
+      <c r="H101" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J101" s="22">
+        <v>1.5</v>
+      </c>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D102" s="4">
         <v>7.0</v>
@@ -3990,20 +4458,26 @@
       <c r="G102" s="6">
         <v>1.5</v>
       </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
+      <c r="H102" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I102" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J102" s="22">
+        <v>1.0</v>
+      </c>
       <c r="K102" s="7"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D103" s="4">
         <v>7.0</v>
@@ -4017,20 +4491,26 @@
       <c r="G103" s="6">
         <v>1.0</v>
       </c>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
+      <c r="H103" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J103" s="22">
+        <v>0.0</v>
+      </c>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D104" s="4">
         <v>7.0</v>
@@ -4044,20 +4524,26 @@
       <c r="G104" s="6">
         <v>1.0</v>
       </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
+      <c r="H104" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="22">
+        <v>1.25</v>
+      </c>
       <c r="K104" s="7"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="4">
         <v>7.0</v>
@@ -4071,20 +4557,26 @@
       <c r="G105" s="6">
         <v>1.5</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
+      <c r="H105" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I105" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="J105" s="22">
+        <v>1.25</v>
+      </c>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" s="4">
         <v>7.0</v>
@@ -4098,20 +4590,26 @@
       <c r="G106" s="6">
         <v>1.0</v>
       </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
+      <c r="H106" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I106" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>1.0</v>
+      </c>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="4">
         <v>7.0</v>
@@ -4125,20 +4623,26 @@
       <c r="G107" s="6">
         <v>1.0</v>
       </c>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
+      <c r="H107" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J107" s="22">
+        <v>1.25</v>
+      </c>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>285</v>
+      <c r="C108" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="D108" s="4">
         <v>7.0</v>
@@ -4152,20 +4656,26 @@
       <c r="G108" s="6">
         <v>1.0</v>
       </c>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
+      <c r="H108" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="J108" s="22">
+        <v>1.25</v>
+      </c>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D109" s="4">
         <v>7.0</v>
@@ -4179,20 +4689,26 @@
       <c r="G109" s="6">
         <v>1.0</v>
       </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
+      <c r="H109" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I109" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J109" s="22">
+        <v>1.25</v>
+      </c>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D110" s="4">
         <v>7.0</v>
@@ -4206,20 +4722,26 @@
       <c r="G110" s="6">
         <v>1.5</v>
       </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
+      <c r="H110" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I110" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="J110" s="22">
+        <v>1.5</v>
+      </c>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D111" s="4">
         <v>7.0</v>
@@ -4233,20 +4755,26 @@
       <c r="G111" s="6">
         <v>1.5</v>
       </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="H111" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I111" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="J111" s="22">
+        <v>1.0</v>
+      </c>
       <c r="K111" s="7"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D112" s="4">
         <v>7.0</v>
@@ -4260,23 +4788,29 @@
       <c r="G112" s="6">
         <v>1.5</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
+      <c r="H112" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I112" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J112" s="22">
+        <v>1.25</v>
+      </c>
       <c r="K112" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$K$112"/>
   <customSheetViews>
-    <customSheetView guid="{48934ABD-5A97-430B-BE4D-84F4E50CC8DD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AD51CE2C-1CCD-4304-A20A-FD632997456E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$K$112"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C10"/>
     <hyperlink r:id="rId2" ref="C48"/>
-    <hyperlink r:id="rId3" ref="C56"/>
-    <hyperlink r:id="rId4" ref="C59"/>
+    <hyperlink r:id="rId3" ref="C55"/>
+    <hyperlink r:id="rId4" ref="C58"/>
     <hyperlink r:id="rId5" ref="C66"/>
     <hyperlink r:id="rId6" ref="C82"/>
     <hyperlink r:id="rId7" ref="C83"/>

--- a/data/Семинары по общей экологии (биологи) 2021.xlsx
+++ b/data/Семинары по общей экологии (биологи) 2021.xlsx
@@ -7,11 +7,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$K$112</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AD51CE2C_1CCD_4304_A20A_FD632997456E_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_2A4F2C30_6AD4_48A9_92F0_FF6FAC4FB337_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AD51CE2C-1CCD-4304-A20A-FD632997456E}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2A4F2C30-6AD4-48A9-92F0-FF6FAC4FB337}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -917,7 +917,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -952,7 +952,6 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF242424"/>
@@ -1001,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1036,36 +1035,29 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,7 +1346,9 @@
       <c r="I2" s="6">
         <v>1.0</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3">
@@ -1385,7 +1379,9 @@
       <c r="I3" s="9">
         <v>1.25</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4">
@@ -1416,7 +1412,9 @@
       <c r="I4" s="9">
         <v>1.5</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5">
@@ -1447,7 +1445,9 @@
       <c r="I5" s="9">
         <v>1.0</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6">
@@ -1478,7 +1478,9 @@
       <c r="I6" s="9">
         <v>1.25</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7">
@@ -1509,7 +1511,9 @@
       <c r="I7" s="9">
         <v>1.25</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8">
@@ -1540,7 +1544,9 @@
       <c r="I8" s="9">
         <v>0.0</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9">
@@ -1571,7 +1577,9 @@
       <c r="I9" s="9">
         <v>1.5</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10">
@@ -1602,7 +1610,9 @@
       <c r="I10" s="9">
         <v>1.5</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11">
@@ -1633,7 +1643,9 @@
       <c r="I11" s="9">
         <v>0.0</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12">
@@ -1664,7 +1676,9 @@
       <c r="I12" s="9">
         <v>1.25</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13">
@@ -1695,7 +1709,9 @@
       <c r="I13" s="9">
         <v>1.0</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K13" s="7"/>
     </row>
     <row r="14">
@@ -1726,7 +1742,9 @@
       <c r="I14" s="9">
         <v>0.0</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K14" s="7"/>
     </row>
     <row r="15">
@@ -1757,7 +1775,9 @@
       <c r="I15" s="9">
         <v>1.25</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K15" s="7"/>
     </row>
     <row r="16">
@@ -1788,7 +1808,9 @@
       <c r="I16" s="9">
         <v>1.5</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K16" s="7"/>
     </row>
     <row r="17">
@@ -1819,7 +1841,9 @@
       <c r="I17" s="9">
         <v>1.5</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K17" s="7"/>
     </row>
     <row r="18">
@@ -1847,8 +1871,10 @@
       <c r="H18" s="9">
         <v>1.25</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13">
+      <c r="I18" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="6">
         <v>1.5</v>
       </c>
       <c r="K18" s="7"/>
@@ -1878,8 +1904,10 @@
       <c r="H19" s="9">
         <v>1.25</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13">
+      <c r="I19" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="6">
         <v>1.0</v>
       </c>
       <c r="K19" s="7"/>
@@ -1909,8 +1937,10 @@
       <c r="H20" s="9">
         <v>1.25</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13">
+      <c r="I20" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="J20" s="6">
         <v>1.5</v>
       </c>
       <c r="K20" s="7"/>
@@ -1940,8 +1970,10 @@
       <c r="H21" s="9">
         <v>1.25</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="13">
+      <c r="I21" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J21" s="6">
         <v>1.5</v>
       </c>
       <c r="K21" s="7"/>
@@ -1971,8 +2003,10 @@
       <c r="H22" s="9">
         <v>1.25</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="13">
+      <c r="I22" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="6">
         <v>1.5</v>
       </c>
       <c r="K22" s="7"/>
@@ -2002,8 +2036,10 @@
       <c r="H23" s="9">
         <v>1.25</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="13">
+      <c r="I23" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="6">
         <v>1.5</v>
       </c>
       <c r="K23" s="7"/>
@@ -2033,8 +2069,10 @@
       <c r="H24" s="9">
         <v>1.25</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="13">
+      <c r="I24" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="6">
         <v>1.5</v>
       </c>
       <c r="K24" s="7"/>
@@ -2064,8 +2102,10 @@
       <c r="H25" s="9">
         <v>1.25</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="13">
+      <c r="I25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="6">
         <v>1.0</v>
       </c>
       <c r="K25" s="7"/>
@@ -2095,8 +2135,10 @@
       <c r="H26" s="6">
         <v>1.0</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="13">
+      <c r="I26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="6">
         <v>1.5</v>
       </c>
       <c r="K26" s="7"/>
@@ -2126,8 +2168,10 @@
       <c r="H27" s="9">
         <v>1.25</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="13">
+      <c r="I27" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="6">
         <v>1.5</v>
       </c>
       <c r="K27" s="7"/>
@@ -2157,8 +2201,10 @@
       <c r="H28" s="6">
         <v>1.5</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="13">
+      <c r="I28" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="6">
         <v>1.5</v>
       </c>
       <c r="K28" s="7"/>
@@ -2188,8 +2234,10 @@
       <c r="H29" s="9">
         <v>1.25</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="13">
+      <c r="I29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="6">
         <v>1.5</v>
       </c>
       <c r="K29" s="7"/>
@@ -2219,8 +2267,10 @@
       <c r="H30" s="9">
         <v>1.25</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="13">
+      <c r="I30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="6">
         <v>1.5</v>
       </c>
       <c r="K30" s="7"/>
@@ -2250,8 +2300,10 @@
       <c r="H31" s="9">
         <v>1.25</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="13">
+      <c r="I31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="6">
         <v>1.5</v>
       </c>
       <c r="K31" s="7"/>
@@ -2281,7 +2333,9 @@
       <c r="H32" s="9">
         <v>1.25</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="6">
+        <v>0.0</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
@@ -2310,8 +2364,10 @@
       <c r="H33" s="6">
         <v>1.5</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="13">
+      <c r="I33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="6">
         <v>1.0</v>
       </c>
       <c r="K33" s="7"/>
@@ -2335,13 +2391,16 @@
       <c r="F34" s="5">
         <v>1.5</v>
       </c>
+      <c r="G34" s="12">
+        <v>1.5</v>
+      </c>
       <c r="H34" s="6">
         <v>1.0</v>
       </c>
       <c r="I34" s="6">
         <v>1.5</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="6">
         <v>1.5</v>
       </c>
       <c r="K34" s="7"/>
@@ -2365,7 +2424,7 @@
       <c r="F35" s="5">
         <v>1.0</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="12">
         <v>1.5</v>
       </c>
       <c r="H35" s="6">
@@ -2374,7 +2433,7 @@
       <c r="I35" s="6">
         <v>1.5</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="6">
         <v>0.0</v>
       </c>
       <c r="K35" s="7"/>
@@ -2398,7 +2457,7 @@
       <c r="F36" s="5">
         <v>1.2</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="12">
         <v>1.5</v>
       </c>
       <c r="H36" s="6">
@@ -2407,7 +2466,7 @@
       <c r="I36" s="6">
         <v>1.0</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="6">
         <v>1.5</v>
       </c>
       <c r="K36" s="7"/>
@@ -2431,7 +2490,7 @@
       <c r="F37" s="5">
         <v>1.5</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="12">
         <v>1.5</v>
       </c>
       <c r="H37" s="6">
@@ -2440,7 +2499,7 @@
       <c r="I37" s="6">
         <v>1.0</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="6">
         <v>1.5</v>
       </c>
       <c r="K37" s="7"/>
@@ -2470,7 +2529,7 @@
       <c r="I38" s="6">
         <v>1.0</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="6">
         <v>1.0</v>
       </c>
       <c r="K38" s="7"/>
@@ -2494,7 +2553,7 @@
       <c r="F39" s="5">
         <v>0.0</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="12">
         <v>1.5</v>
       </c>
       <c r="H39" s="6">
@@ -2503,7 +2562,7 @@
       <c r="I39" s="6">
         <v>1.5</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="6">
         <v>1.5</v>
       </c>
       <c r="K39" s="7"/>
@@ -2527,7 +2586,7 @@
       <c r="F40" s="5">
         <v>1.2</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="12">
         <v>1.0</v>
       </c>
       <c r="H40" s="6">
@@ -2536,7 +2595,7 @@
       <c r="I40" s="6">
         <v>1.0</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="6">
         <v>1.0</v>
       </c>
       <c r="K40" s="7"/>
@@ -2566,7 +2625,7 @@
       <c r="I41" s="6">
         <v>1.0</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="6">
         <v>0.0</v>
       </c>
       <c r="K41" s="7"/>
@@ -2590,7 +2649,7 @@
       <c r="F42" s="5">
         <v>1.2</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="12">
         <v>1.5</v>
       </c>
       <c r="H42" s="6">
@@ -2599,7 +2658,7 @@
       <c r="I42" s="6">
         <v>1.5</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="6">
         <v>1.0</v>
       </c>
       <c r="K42" s="7"/>
@@ -2623,7 +2682,7 @@
       <c r="F43" s="5">
         <v>1.0</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="12">
         <v>1.0</v>
       </c>
       <c r="H43" s="6">
@@ -2632,13 +2691,13 @@
       <c r="I43" s="6">
         <v>1.0</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="6">
         <v>1.0</v>
       </c>
       <c r="K43" s="7"/>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2656,7 +2715,7 @@
       <c r="F44" s="5">
         <v>1.0</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="12">
         <v>1.5</v>
       </c>
       <c r="H44" s="6">
@@ -2665,7 +2724,7 @@
       <c r="I44" s="6">
         <v>1.0</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="6">
         <v>1.0</v>
       </c>
       <c r="K44" s="7"/>
@@ -2689,14 +2748,14 @@
       <c r="F45" s="5">
         <v>1.0</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="12">
         <v>1.0</v>
       </c>
       <c r="H45" s="6">
         <v>0.0</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="13">
+      <c r="J45" s="6">
         <v>1.0</v>
       </c>
       <c r="K45" s="7"/>
@@ -2720,7 +2779,7 @@
       <c r="F46" s="5">
         <v>1.2</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="12">
         <v>1.5</v>
       </c>
       <c r="H46" s="6">
@@ -2729,7 +2788,7 @@
       <c r="I46" s="6">
         <v>1.5</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="6">
         <v>1.0</v>
       </c>
       <c r="K46" s="7"/>
@@ -2753,7 +2812,7 @@
       <c r="F47" s="5">
         <v>1.3</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="12">
         <v>1.5</v>
       </c>
       <c r="H47" s="6">
@@ -2762,7 +2821,7 @@
       <c r="I47" s="6">
         <v>1.0</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="6">
         <v>1.0</v>
       </c>
       <c r="K47" s="7"/>
@@ -2774,7 +2833,7 @@
       <c r="B48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="14" t="s">
         <v>136</v>
       </c>
       <c r="D48" s="4">
@@ -2792,13 +2851,13 @@
       <c r="I48" s="6">
         <v>1.0</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="6">
         <v>1.0</v>
       </c>
       <c r="K48" s="7"/>
     </row>
     <row r="49">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2816,7 +2875,7 @@
       <c r="F49" s="5">
         <v>1.5</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="12">
         <v>1.5</v>
       </c>
       <c r="H49" s="6">
@@ -2825,7 +2884,7 @@
       <c r="I49" s="6">
         <v>1.5</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="6">
         <v>1.0</v>
       </c>
       <c r="K49" s="7"/>
@@ -2858,7 +2917,7 @@
       <c r="I50" s="6">
         <v>1.0</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="6">
         <v>1.0</v>
       </c>
       <c r="K50" s="7"/>
@@ -2870,7 +2929,7 @@
       <c r="B51" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>144</v>
       </c>
       <c r="D51" s="4">
@@ -2889,7 +2948,7 @@
       <c r="I51" s="6">
         <v>0.0</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="6">
         <v>1.0</v>
       </c>
       <c r="K51" s="7"/>
@@ -2922,7 +2981,7 @@
       <c r="I52" s="6">
         <v>1.0</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="6">
         <v>1.5</v>
       </c>
       <c r="K52" s="7"/>
@@ -2955,7 +3014,7 @@
       <c r="I53" s="6">
         <v>1.0</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="6">
         <v>1.5</v>
       </c>
       <c r="K53" s="7"/>
@@ -2988,7 +3047,7 @@
       <c r="I54" s="6">
         <v>1.3</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="6">
         <v>1.0</v>
       </c>
       <c r="K54" s="7"/>
@@ -3000,7 +3059,7 @@
       <c r="B55" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>153</v>
       </c>
       <c r="D55" s="4">
@@ -3021,7 +3080,7 @@
       <c r="I55" s="6">
         <v>1.3</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="6">
         <v>1.5</v>
       </c>
       <c r="K55" s="7"/>
@@ -3054,7 +3113,7 @@
       <c r="I56" s="6">
         <v>1.0</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="6">
         <v>1.0</v>
       </c>
       <c r="K56" s="7"/>
@@ -3087,7 +3146,7 @@
       <c r="I57" s="6">
         <v>1.3</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="6">
         <v>1.5</v>
       </c>
       <c r="K57" s="7"/>
@@ -3120,7 +3179,7 @@
       <c r="I58" s="6">
         <v>0.0</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="6">
         <v>1.0</v>
       </c>
       <c r="K58" s="7"/>
@@ -3151,7 +3210,7 @@
       <c r="I59" s="6">
         <v>1.3</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="6">
         <v>1.0</v>
       </c>
       <c r="K59" s="7"/>
@@ -3184,7 +3243,7 @@
       <c r="I60" s="6">
         <v>1.0</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="6">
         <v>1.0</v>
       </c>
       <c r="K60" s="7"/>
@@ -3217,7 +3276,7 @@
       <c r="I61" s="6">
         <v>1.0</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="6">
         <v>1.0</v>
       </c>
       <c r="K61" s="7"/>
@@ -3250,7 +3309,7 @@
       <c r="I62" s="6">
         <v>1.3</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="6">
         <v>1.5</v>
       </c>
       <c r="K62" s="7"/>
@@ -3283,7 +3342,7 @@
       <c r="I63" s="6">
         <v>1.3</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="6">
         <v>1.5</v>
       </c>
       <c r="K63" s="7"/>
@@ -3316,7 +3375,7 @@
       <c r="I64" s="6">
         <v>1.0</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="6">
         <v>1.0</v>
       </c>
       <c r="K64" s="7"/>
@@ -3347,7 +3406,7 @@
       <c r="I65" s="6">
         <v>0.0</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="6">
         <v>0.0</v>
       </c>
       <c r="K65" s="7"/>
@@ -3359,14 +3418,14 @@
       <c r="B66" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>179</v>
       </c>
       <c r="D66" s="4">
         <v>5.0</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
       <c r="G66" s="6">
         <v>1.5</v>
       </c>
@@ -3394,8 +3453,8 @@
       <c r="D67" s="4">
         <v>5.0</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
       <c r="G67" s="6">
         <v>1.5</v>
       </c>
@@ -3423,8 +3482,8 @@
       <c r="D68" s="4">
         <v>5.0</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="6">
         <v>1.5</v>
       </c>
@@ -3452,8 +3511,8 @@
       <c r="D69" s="4">
         <v>5.0</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
       <c r="G69" s="6">
         <v>1.0</v>
       </c>
@@ -3481,8 +3540,8 @@
       <c r="D70" s="4">
         <v>5.0</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
         <v>0.0</v>
@@ -3508,8 +3567,8 @@
       <c r="D71" s="4">
         <v>5.0</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
       <c r="G71" s="6">
         <v>1.0</v>
       </c>
@@ -3537,8 +3596,8 @@
       <c r="D72" s="4">
         <v>5.0</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
       <c r="G72" s="6">
         <v>1.5</v>
       </c>
@@ -3566,8 +3625,8 @@
       <c r="D73" s="4">
         <v>5.0</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
       <c r="G73" s="6">
         <v>1.0</v>
       </c>
@@ -3595,8 +3654,8 @@
       <c r="D74" s="4">
         <v>5.0</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
       <c r="G74" s="6">
         <v>1.0</v>
       </c>
@@ -3624,8 +3683,8 @@
       <c r="D75" s="4">
         <v>5.0</v>
       </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
       <c r="G75" s="6">
         <v>1.5</v>
       </c>
@@ -3653,8 +3712,8 @@
       <c r="D76" s="4">
         <v>5.0</v>
       </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
       <c r="G76" s="6">
         <v>1.2</v>
       </c>
@@ -3682,8 +3741,8 @@
       <c r="D77" s="4">
         <v>5.0</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
       <c r="G77" s="6">
         <v>1.4</v>
       </c>
@@ -3705,14 +3764,14 @@
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="15" t="s">
         <v>211</v>
       </c>
       <c r="D78" s="4">
         <v>5.0</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="6">
         <v>1.5</v>
       </c>
@@ -3740,8 +3799,8 @@
       <c r="D79" s="4">
         <v>5.0</v>
       </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
       <c r="G79" s="6">
         <v>1.0</v>
       </c>
@@ -3751,7 +3810,7 @@
       <c r="I79" s="6">
         <v>1.0</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="6">
         <v>1.5</v>
       </c>
       <c r="K79" s="7"/>
@@ -3769,8 +3828,8 @@
       <c r="D80" s="4">
         <v>5.0</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
       <c r="G80" s="6">
         <v>1.0</v>
       </c>
@@ -3780,7 +3839,7 @@
       <c r="I80" s="6">
         <v>1.5</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="6">
         <v>1.5</v>
       </c>
       <c r="K80" s="7"/>
@@ -3792,7 +3851,7 @@
       <c r="B81" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D81" s="4">
@@ -3817,7 +3876,7 @@
       <c r="B82" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="14" t="s">
         <v>221</v>
       </c>
       <c r="D82" s="4">
@@ -3838,7 +3897,9 @@
       <c r="I82" s="6">
         <v>0.0</v>
       </c>
-      <c r="J82" s="7"/>
+      <c r="J82" s="6">
+        <v>0.0</v>
+      </c>
       <c r="K82" s="7"/>
     </row>
     <row r="83">
@@ -3848,7 +3909,7 @@
       <c r="B83" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="16" t="s">
         <v>224</v>
       </c>
       <c r="D83" s="4">
@@ -3869,7 +3930,9 @@
       <c r="I83" s="6">
         <v>1.5</v>
       </c>
-      <c r="J83" s="7"/>
+      <c r="J83" s="6">
+        <v>1.2</v>
+      </c>
       <c r="K83" s="7"/>
     </row>
     <row r="84">
@@ -3900,7 +3963,9 @@
       <c r="I84" s="6">
         <v>1.5</v>
       </c>
-      <c r="J84" s="7"/>
+      <c r="J84" s="6">
+        <v>1.2</v>
+      </c>
       <c r="K84" s="7"/>
     </row>
     <row r="85">
@@ -3931,7 +3996,9 @@
       <c r="I85" s="6">
         <v>1.5</v>
       </c>
-      <c r="J85" s="7"/>
+      <c r="J85" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K85" s="7"/>
     </row>
     <row r="86">
@@ -3947,8 +4014,8 @@
       <c r="D86" s="4">
         <v>6.0</v>
       </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="21">
+      <c r="E86" s="17"/>
+      <c r="F86" s="19">
         <v>1.5</v>
       </c>
       <c r="G86" s="6">
@@ -3960,7 +4027,9 @@
       <c r="I86" s="6">
         <v>1.5</v>
       </c>
-      <c r="J86" s="7"/>
+      <c r="J86" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K86" s="7"/>
     </row>
     <row r="87">
@@ -3991,7 +4060,9 @@
       <c r="I87" s="6">
         <v>1.5</v>
       </c>
-      <c r="J87" s="7"/>
+      <c r="J87" s="6">
+        <v>1.4</v>
+      </c>
       <c r="K87" s="7"/>
     </row>
     <row r="88">
@@ -4022,7 +4093,9 @@
       <c r="I88" s="6">
         <v>1.5</v>
       </c>
-      <c r="J88" s="7"/>
+      <c r="J88" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K88" s="7"/>
     </row>
     <row r="89">
@@ -4053,7 +4126,9 @@
       <c r="I89" s="6">
         <v>1.5</v>
       </c>
-      <c r="J89" s="7"/>
+      <c r="J89" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
@@ -4084,7 +4159,9 @@
       <c r="I90" s="6">
         <v>1.5</v>
       </c>
-      <c r="J90" s="7"/>
+      <c r="J90" s="6">
+        <v>1.2</v>
+      </c>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
@@ -4115,7 +4192,9 @@
       <c r="I91" s="6">
         <v>1.5</v>
       </c>
-      <c r="J91" s="7"/>
+      <c r="J91" s="6">
+        <v>1.2</v>
+      </c>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
@@ -4146,7 +4225,9 @@
       <c r="I92" s="6">
         <v>1.5</v>
       </c>
-      <c r="J92" s="7"/>
+      <c r="J92" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
@@ -4177,7 +4258,9 @@
       <c r="I93" s="6">
         <v>1.5</v>
       </c>
-      <c r="J93" s="7"/>
+      <c r="J93" s="6">
+        <v>1.0</v>
+      </c>
       <c r="K93" s="7"/>
     </row>
     <row r="94">
@@ -4208,7 +4291,9 @@
       <c r="I94" s="6">
         <v>1.5</v>
       </c>
-      <c r="J94" s="7"/>
+      <c r="J94" s="6">
+        <v>1.3</v>
+      </c>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
@@ -4224,8 +4309,8 @@
       <c r="D95" s="4">
         <v>6.0</v>
       </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
       <c r="G95" s="6">
         <v>1.2</v>
       </c>
@@ -4235,7 +4320,7 @@
       <c r="I95" s="6">
         <v>1.5</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="6">
         <v>1.5</v>
       </c>
       <c r="K95" s="7"/>
@@ -4253,8 +4338,8 @@
       <c r="D96" s="4">
         <v>6.0</v>
       </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="21">
+      <c r="E96" s="17"/>
+      <c r="F96" s="19">
         <v>1.0</v>
       </c>
       <c r="G96" s="6">
@@ -4266,7 +4351,7 @@
       <c r="I96" s="6">
         <v>1.5</v>
       </c>
-      <c r="J96" s="22">
+      <c r="J96" s="9">
         <v>1.0</v>
       </c>
       <c r="K96" s="7"/>
@@ -4299,7 +4384,7 @@
       <c r="I97" s="6">
         <v>1.3</v>
       </c>
-      <c r="J97" s="22">
+      <c r="J97" s="9">
         <v>1.25</v>
       </c>
       <c r="K97" s="7"/>
@@ -4332,7 +4417,7 @@
       <c r="I98" s="6">
         <v>0.0</v>
       </c>
-      <c r="J98" s="22">
+      <c r="J98" s="9">
         <v>1.5</v>
       </c>
       <c r="K98" s="7"/>
@@ -4365,7 +4450,7 @@
       <c r="I99" s="6">
         <v>1.0</v>
       </c>
-      <c r="J99" s="22">
+      <c r="J99" s="9">
         <v>1.2</v>
       </c>
       <c r="K99" s="7"/>
@@ -4398,7 +4483,7 @@
       <c r="I100" s="6">
         <v>0.0</v>
       </c>
-      <c r="J100" s="22">
+      <c r="J100" s="9">
         <v>0.0</v>
       </c>
       <c r="K100" s="7"/>
@@ -4431,7 +4516,7 @@
       <c r="I101" s="6">
         <v>1.5</v>
       </c>
-      <c r="J101" s="22">
+      <c r="J101" s="9">
         <v>1.5</v>
       </c>
       <c r="K101" s="7"/>
@@ -4464,7 +4549,7 @@
       <c r="I102" s="6">
         <v>1.2</v>
       </c>
-      <c r="J102" s="22">
+      <c r="J102" s="9">
         <v>1.0</v>
       </c>
       <c r="K102" s="7"/>
@@ -4497,7 +4582,7 @@
       <c r="I103" s="6">
         <v>1.5</v>
       </c>
-      <c r="J103" s="22">
+      <c r="J103" s="9">
         <v>0.0</v>
       </c>
       <c r="K103" s="7"/>
@@ -4530,7 +4615,7 @@
       <c r="I104" s="6">
         <v>0.0</v>
       </c>
-      <c r="J104" s="22">
+      <c r="J104" s="9">
         <v>1.25</v>
       </c>
       <c r="K104" s="7"/>
@@ -4563,7 +4648,7 @@
       <c r="I105" s="6">
         <v>1.25</v>
       </c>
-      <c r="J105" s="22">
+      <c r="J105" s="9">
         <v>1.25</v>
       </c>
       <c r="K105" s="7"/>
@@ -4596,7 +4681,7 @@
       <c r="I106" s="6">
         <v>1.0</v>
       </c>
-      <c r="J106" s="22">
+      <c r="J106" s="9">
         <v>1.0</v>
       </c>
       <c r="K106" s="7"/>
@@ -4629,7 +4714,7 @@
       <c r="I107" s="6">
         <v>1.0</v>
       </c>
-      <c r="J107" s="22">
+      <c r="J107" s="9">
         <v>1.25</v>
       </c>
       <c r="K107" s="7"/>
@@ -4641,7 +4726,7 @@
       <c r="B108" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="14" t="s">
         <v>286</v>
       </c>
       <c r="D108" s="4">
@@ -4662,7 +4747,7 @@
       <c r="I108" s="6">
         <v>1.35</v>
       </c>
-      <c r="J108" s="22">
+      <c r="J108" s="9">
         <v>1.25</v>
       </c>
       <c r="K108" s="7"/>
@@ -4695,7 +4780,7 @@
       <c r="I109" s="6">
         <v>1.5</v>
       </c>
-      <c r="J109" s="22">
+      <c r="J109" s="9">
         <v>1.25</v>
       </c>
       <c r="K109" s="7"/>
@@ -4728,7 +4813,7 @@
       <c r="I110" s="6">
         <v>1.4</v>
       </c>
-      <c r="J110" s="22">
+      <c r="J110" s="9">
         <v>1.5</v>
       </c>
       <c r="K110" s="7"/>
@@ -4761,7 +4846,7 @@
       <c r="I111" s="6">
         <v>1.4</v>
       </c>
-      <c r="J111" s="22">
+      <c r="J111" s="9">
         <v>1.0</v>
       </c>
       <c r="K111" s="7"/>
@@ -4794,7 +4879,7 @@
       <c r="I112" s="6">
         <v>1.3</v>
       </c>
-      <c r="J112" s="22">
+      <c r="J112" s="9">
         <v>1.25</v>
       </c>
       <c r="K112" s="7"/>
@@ -4802,7 +4887,7 @@
   </sheetData>
   <autoFilter ref="$A$1:$K$112"/>
   <customSheetViews>
-    <customSheetView guid="{AD51CE2C-1CCD-4304-A20A-FD632997456E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2A4F2C30-6AD4-48A9-92F0-FF6FAC4FB337}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$K$112"/>
     </customSheetView>
   </customSheetViews>

--- a/data/Семинары по общей экологии (биологи) 2021.xlsx
+++ b/data/Семинары по общей экологии (биологи) 2021.xlsx
@@ -7,17 +7,17 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$K$112</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_2A4F2C30_6AD4_48A9_92F0_FF6FAC4FB337_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BDEFDF5C_1F60_4238_9BF6_DD203271CDA5_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2A4F2C30-6AD4-48A9-92F0-FF6FAC4FB337}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BDEFDF5C-1F60-4238-9BF6-DD203271CDA5}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="298">
   <si>
     <t>Family</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>1.12.21</t>
+  </si>
+  <si>
+    <t>08.12.12</t>
   </si>
   <si>
     <t>Беспалов</t>
@@ -917,7 +920,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -973,6 +976,11 @@
       <color rgb="FF5C6993"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1000,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1022,7 +1030,6 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -1035,6 +1042,7 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1058,6 +1066,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,16 +1328,19 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
@@ -1349,18 +1363,20 @@
       <c r="J2" s="6">
         <v>1.0</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="4">
         <v>1.0</v>
       </c>
@@ -1376,24 +1392,26 @@
       <c r="H3" s="6">
         <v>1.0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>1.25</v>
       </c>
       <c r="J3" s="6">
         <v>0.0</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="4">
         <v>1.0</v>
       </c>
@@ -1409,23 +1427,25 @@
       <c r="H4" s="6">
         <v>1.0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>1.5</v>
       </c>
       <c r="J4" s="6">
         <v>0.0</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>1.0</v>
@@ -1442,24 +1462,26 @@
       <c r="H5" s="6">
         <v>1.0</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>1.0</v>
       </c>
       <c r="J5" s="6">
         <v>1.0</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="4">
         <v>1.0</v>
       </c>
@@ -1475,24 +1497,26 @@
       <c r="H6" s="6">
         <v>1.5</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>1.25</v>
       </c>
       <c r="J6" s="6">
         <v>1.5</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="4">
         <v>1.0</v>
       </c>
@@ -1508,24 +1532,26 @@
       <c r="H7" s="6">
         <v>1.5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>1.25</v>
       </c>
       <c r="J7" s="6">
         <v>1.0</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="4">
         <v>1.0</v>
       </c>
@@ -1541,24 +1567,26 @@
       <c r="H8" s="6">
         <v>1.5</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>0.0</v>
       </c>
       <c r="J8" s="6">
         <v>1.5</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="4">
         <v>1.0</v>
       </c>
@@ -1574,24 +1602,26 @@
       <c r="H9" s="6">
         <v>1.0</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>1.5</v>
       </c>
       <c r="J9" s="6">
         <v>1.0</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="4">
         <v>1.0</v>
       </c>
@@ -1607,23 +1637,23 @@
       <c r="H10" s="6">
         <v>0.0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>1.5</v>
       </c>
       <c r="J10" s="6">
         <v>0.0</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="4">
         <v>1.0</v>
@@ -1640,23 +1670,25 @@
       <c r="H11" s="6">
         <v>1.1</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>0.0</v>
       </c>
       <c r="J11" s="6">
         <v>1.0</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4">
         <v>1.0</v>
@@ -1673,23 +1705,25 @@
       <c r="H12" s="6">
         <v>1.1</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>1.25</v>
       </c>
       <c r="J12" s="6">
         <v>1.0</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4">
         <v>1.0</v>
@@ -1706,24 +1740,26 @@
       <c r="H13" s="6">
         <v>1.0</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>1.0</v>
       </c>
       <c r="J13" s="6">
         <v>0.0</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="4">
         <v>1.0</v>
       </c>
@@ -1739,23 +1775,23 @@
       <c r="H14" s="6">
         <v>0.0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>0.0</v>
       </c>
       <c r="J14" s="6">
         <v>1.0</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4">
         <v>1.0</v>
@@ -1772,23 +1808,25 @@
       <c r="H15" s="6">
         <v>1.2</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>1.25</v>
       </c>
       <c r="J15" s="6">
         <v>1.0</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4">
         <v>1.0</v>
@@ -1805,23 +1843,23 @@
       <c r="H16" s="6">
         <v>1.2</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>1.5</v>
       </c>
       <c r="J16" s="6">
         <v>1.0</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4">
         <v>1.0</v>
@@ -1838,23 +1876,23 @@
       <c r="H17" s="6">
         <v>1.2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>1.5</v>
       </c>
       <c r="J17" s="6">
         <v>1.0</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D18" s="4">
         <v>2.0</v>
@@ -1868,26 +1906,26 @@
       <c r="G18" s="6">
         <v>1.2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>1.25</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>0.0</v>
       </c>
       <c r="J18" s="6">
         <v>1.5</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D19" s="4">
         <v>2.0</v>
@@ -1901,26 +1939,26 @@
       <c r="G19" s="6">
         <v>1.0</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>1.25</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>1.0</v>
       </c>
       <c r="J19" s="6">
         <v>1.0</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="4">
         <v>2.0</v>
@@ -1934,26 +1972,26 @@
       <c r="G20" s="6">
         <v>1.5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>1.25</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>1.0</v>
       </c>
       <c r="J20" s="6">
         <v>1.5</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4">
         <v>2.0</v>
@@ -1967,7 +2005,7 @@
       <c r="G21" s="6">
         <v>1.5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>1.25</v>
       </c>
       <c r="I21" s="6">
@@ -1976,17 +2014,17 @@
       <c r="J21" s="6">
         <v>1.5</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4">
         <v>2.0</v>
@@ -2000,7 +2038,7 @@
       <c r="G22" s="6">
         <v>1.5</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>1.25</v>
       </c>
       <c r="I22" s="6">
@@ -2009,17 +2047,17 @@
       <c r="J22" s="6">
         <v>1.5</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4">
         <v>2.0</v>
@@ -2033,7 +2071,7 @@
       <c r="G23" s="6">
         <v>1.5</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>1.25</v>
       </c>
       <c r="I23" s="6">
@@ -2042,17 +2080,17 @@
       <c r="J23" s="6">
         <v>1.5</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4">
         <v>2.0</v>
@@ -2066,7 +2104,7 @@
       <c r="G24" s="6">
         <v>1.2</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>1.25</v>
       </c>
       <c r="I24" s="6">
@@ -2075,17 +2113,17 @@
       <c r="J24" s="6">
         <v>1.5</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4">
         <v>2.0</v>
@@ -2099,7 +2137,7 @@
       <c r="G25" s="6">
         <v>1.4</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>1.25</v>
       </c>
       <c r="I25" s="6">
@@ -2108,17 +2146,17 @@
       <c r="J25" s="6">
         <v>1.0</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="4">
         <v>2.0</v>
@@ -2141,17 +2179,17 @@
       <c r="J26" s="6">
         <v>1.5</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="4">
         <v>2.0</v>
@@ -2165,7 +2203,7 @@
       <c r="G27" s="6">
         <v>1.2</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>1.25</v>
       </c>
       <c r="I27" s="6">
@@ -2174,17 +2212,17 @@
       <c r="J27" s="6">
         <v>1.5</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="10" t="s">
         <v>88</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D28" s="4">
         <v>2.0</v>
@@ -2207,17 +2245,17 @@
       <c r="J28" s="6">
         <v>1.5</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="4">
         <v>2.0</v>
@@ -2231,7 +2269,7 @@
       <c r="G29" s="6">
         <v>1.1</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>1.25</v>
       </c>
       <c r="I29" s="6">
@@ -2240,17 +2278,17 @@
       <c r="J29" s="6">
         <v>1.5</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="4">
         <v>2.0</v>
@@ -2264,7 +2302,7 @@
       <c r="G30" s="6">
         <v>1.3</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>1.25</v>
       </c>
       <c r="I30" s="6">
@@ -2273,17 +2311,17 @@
       <c r="J30" s="6">
         <v>1.5</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="4">
         <v>2.0</v>
@@ -2297,7 +2335,7 @@
       <c r="G31" s="6">
         <v>1.1</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>1.25</v>
       </c>
       <c r="I31" s="6">
@@ -2306,17 +2344,17 @@
       <c r="J31" s="6">
         <v>1.5</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="4">
         <v>2.0</v>
@@ -2330,24 +2368,24 @@
       <c r="G32" s="6">
         <v>1.0</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>1.25</v>
       </c>
       <c r="I32" s="6">
         <v>0.0</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="4">
         <v>2.0</v>
@@ -2370,17 +2408,17 @@
       <c r="J33" s="6">
         <v>1.0</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="4">
         <v>3.0</v>
@@ -2403,17 +2441,19 @@
       <c r="J34" s="6">
         <v>1.5</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="4">
         <v>3.0</v>
@@ -2436,17 +2476,19 @@
       <c r="J35" s="6">
         <v>0.0</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="4">
         <v>3.0</v>
@@ -2469,17 +2511,19 @@
       <c r="J36" s="6">
         <v>1.5</v>
       </c>
-      <c r="K36" s="7"/>
+      <c r="K36" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="4">
         <v>3.0</v>
@@ -2502,17 +2546,19 @@
       <c r="J37" s="6">
         <v>1.5</v>
       </c>
-      <c r="K37" s="7"/>
+      <c r="K37" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="4">
         <v>3.0</v>
@@ -2523,6 +2569,9 @@
       <c r="F38" s="5">
         <v>1.2</v>
       </c>
+      <c r="G38" s="12">
+        <v>1.5</v>
+      </c>
       <c r="H38" s="6">
         <v>1.0</v>
       </c>
@@ -2532,17 +2581,19 @@
       <c r="J38" s="6">
         <v>1.0</v>
       </c>
-      <c r="K38" s="7"/>
+      <c r="K38" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="4">
         <v>3.0</v>
@@ -2565,17 +2616,19 @@
       <c r="J39" s="6">
         <v>1.5</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="4">
         <v>3.0</v>
@@ -2598,17 +2651,19 @@
       <c r="J40" s="6">
         <v>1.0</v>
       </c>
-      <c r="K40" s="7"/>
+      <c r="K40" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="4">
         <v>3.0</v>
@@ -2628,17 +2683,19 @@
       <c r="J41" s="6">
         <v>0.0</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="4">
         <v>3.0</v>
@@ -2661,17 +2718,19 @@
       <c r="J42" s="6">
         <v>1.0</v>
       </c>
-      <c r="K42" s="7"/>
+      <c r="K42" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="4">
         <v>3.0</v>
@@ -2694,17 +2753,19 @@
       <c r="J43" s="6">
         <v>1.0</v>
       </c>
-      <c r="K43" s="7"/>
+      <c r="K43" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="4">
         <v>3.0</v>
@@ -2727,17 +2788,19 @@
       <c r="J44" s="6">
         <v>1.0</v>
       </c>
-      <c r="K44" s="7"/>
+      <c r="K44" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="4">
         <v>3.0</v>
@@ -2754,21 +2817,23 @@
       <c r="H45" s="6">
         <v>0.0</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="6">
         <v>1.0</v>
       </c>
-      <c r="K45" s="7"/>
+      <c r="K45" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="4">
         <v>3.0</v>
@@ -2791,17 +2856,19 @@
       <c r="J46" s="6">
         <v>1.0</v>
       </c>
-      <c r="K46" s="7"/>
+      <c r="K46" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="4">
         <v>3.0</v>
@@ -2824,17 +2891,19 @@
       <c r="J47" s="6">
         <v>1.0</v>
       </c>
-      <c r="K47" s="7"/>
+      <c r="K47" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" s="4">
         <v>3.0</v>
@@ -2854,17 +2923,19 @@
       <c r="J48" s="6">
         <v>1.0</v>
       </c>
-      <c r="K48" s="7"/>
+      <c r="K48" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="4">
         <v>3.0</v>
@@ -2887,17 +2958,19 @@
       <c r="J49" s="6">
         <v>1.0</v>
       </c>
-      <c r="K49" s="7"/>
+      <c r="K49" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>141</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="D50" s="4">
         <v>4.0</v>
@@ -2920,17 +2993,17 @@
       <c r="J50" s="6">
         <v>1.0</v>
       </c>
-      <c r="K50" s="7"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D51" s="4">
         <v>4.0</v>
@@ -2944,24 +3017,24 @@
       <c r="G51" s="6">
         <v>0.0</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="6">
         <v>0.0</v>
       </c>
       <c r="J51" s="6">
         <v>1.0</v>
       </c>
-      <c r="K51" s="7"/>
+      <c r="K51" s="11"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>146</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D52" s="4">
         <v>4.0</v>
@@ -2984,17 +3057,17 @@
       <c r="J52" s="6">
         <v>1.5</v>
       </c>
-      <c r="K52" s="7"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="A53" s="7" t="s">
         <v>148</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D53" s="4">
         <v>4.0</v>
@@ -3017,17 +3090,17 @@
       <c r="J53" s="6">
         <v>1.5</v>
       </c>
-      <c r="K53" s="7"/>
+      <c r="K53" s="11"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>150</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D54" s="4">
         <v>4.0</v>
@@ -3050,17 +3123,17 @@
       <c r="J54" s="6">
         <v>1.0</v>
       </c>
-      <c r="K54" s="7"/>
+      <c r="K54" s="11"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="B55" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="C55" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D55" s="4">
         <v>4.0</v>
@@ -3083,17 +3156,17 @@
       <c r="J55" s="6">
         <v>1.5</v>
       </c>
-      <c r="K55" s="7"/>
+      <c r="K55" s="11"/>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>155</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D56" s="4">
         <v>4.0</v>
@@ -3116,17 +3189,17 @@
       <c r="J56" s="6">
         <v>1.0</v>
       </c>
-      <c r="K56" s="7"/>
+      <c r="K56" s="11"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>157</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="D57" s="4">
         <v>4.0</v>
@@ -3149,17 +3222,17 @@
       <c r="J57" s="6">
         <v>1.5</v>
       </c>
-      <c r="K57" s="7"/>
+      <c r="K57" s="11"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="11" t="s">
         <v>160</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D58" s="4">
         <v>4.0</v>
@@ -3182,17 +3255,17 @@
       <c r="J58" s="6">
         <v>1.0</v>
       </c>
-      <c r="K58" s="7"/>
+      <c r="K58" s="11"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>162</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="D59" s="4">
         <v>4.0</v>
@@ -3206,24 +3279,24 @@
       <c r="G59" s="6">
         <v>0.0</v>
       </c>
-      <c r="H59" s="7"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="6">
         <v>1.3</v>
       </c>
       <c r="J59" s="6">
         <v>1.0</v>
       </c>
-      <c r="K59" s="7"/>
+      <c r="K59" s="11"/>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>164</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D60" s="4">
         <v>4.0</v>
@@ -3246,17 +3319,17 @@
       <c r="J60" s="6">
         <v>1.0</v>
       </c>
-      <c r="K60" s="7"/>
+      <c r="K60" s="11"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D61" s="4">
         <v>4.0</v>
@@ -3279,17 +3352,17 @@
       <c r="J61" s="6">
         <v>1.0</v>
       </c>
-      <c r="K61" s="7"/>
+      <c r="K61" s="11"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D62" s="4">
         <v>4.0</v>
@@ -3312,17 +3385,17 @@
       <c r="J62" s="6">
         <v>1.5</v>
       </c>
-      <c r="K62" s="7"/>
+      <c r="K62" s="11"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D63" s="4">
         <v>4.0</v>
@@ -3345,17 +3418,17 @@
       <c r="J63" s="6">
         <v>1.5</v>
       </c>
-      <c r="K63" s="7"/>
+      <c r="K63" s="11"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D64" s="4">
         <v>4.0</v>
@@ -3378,17 +3451,17 @@
       <c r="J64" s="6">
         <v>1.0</v>
       </c>
-      <c r="K64" s="7"/>
+      <c r="K64" s="11"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D65" s="4">
         <v>4.0</v>
@@ -3402,24 +3475,24 @@
       <c r="G65" s="6">
         <v>0.0</v>
       </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="11"/>
       <c r="I65" s="6">
         <v>0.0</v>
       </c>
       <c r="J65" s="6">
         <v>0.0</v>
       </c>
-      <c r="K65" s="7"/>
+      <c r="K65" s="11"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D66" s="4">
         <v>5.0</v>
@@ -3438,17 +3511,19 @@
       <c r="J66" s="6">
         <v>1.5</v>
       </c>
-      <c r="K66" s="7"/>
+      <c r="K66" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D67" s="4">
         <v>5.0</v>
@@ -3467,17 +3542,19 @@
       <c r="J67" s="6">
         <v>0.0</v>
       </c>
-      <c r="K67" s="7"/>
+      <c r="K67" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D68" s="4">
         <v>5.0</v>
@@ -3496,17 +3573,19 @@
       <c r="J68" s="6">
         <v>1.5</v>
       </c>
-      <c r="K68" s="7"/>
+      <c r="K68" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D69" s="4">
         <v>5.0</v>
@@ -3525,24 +3604,26 @@
       <c r="J69" s="6">
         <v>1.5</v>
       </c>
-      <c r="K69" s="7"/>
+      <c r="K69" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D70" s="4">
         <v>5.0</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="6">
         <v>0.0</v>
       </c>
@@ -3552,17 +3633,19 @@
       <c r="J70" s="6">
         <v>0.0</v>
       </c>
-      <c r="K70" s="7"/>
+      <c r="K70" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="4">
         <v>5.0</v>
@@ -3581,17 +3664,19 @@
       <c r="J71" s="6">
         <v>1.5</v>
       </c>
-      <c r="K71" s="7"/>
+      <c r="K71" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>195</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="D72" s="4">
         <v>5.0</v>
@@ -3610,17 +3695,19 @@
       <c r="J72" s="6">
         <v>1.5</v>
       </c>
-      <c r="K72" s="7"/>
+      <c r="K72" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D73" s="4">
         <v>5.0</v>
@@ -3639,17 +3726,19 @@
       <c r="J73" s="6">
         <v>1.5</v>
       </c>
-      <c r="K73" s="7"/>
+      <c r="K73" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="4">
         <v>5.0</v>
@@ -3668,17 +3757,19 @@
       <c r="J74" s="6">
         <v>0.0</v>
       </c>
-      <c r="K74" s="7"/>
+      <c r="K74" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D75" s="4">
         <v>5.0</v>
@@ -3697,17 +3788,19 @@
       <c r="J75" s="6">
         <v>1.5</v>
       </c>
-      <c r="K75" s="7"/>
+      <c r="K75" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D76" s="4">
         <v>5.0</v>
@@ -3726,17 +3819,19 @@
       <c r="J76" s="6">
         <v>0.0</v>
       </c>
-      <c r="K76" s="7"/>
+      <c r="K76" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D77" s="4">
         <v>5.0</v>
@@ -3755,17 +3850,19 @@
       <c r="J77" s="6">
         <v>0.0</v>
       </c>
-      <c r="K77" s="7"/>
+      <c r="K77" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D78" s="4">
         <v>5.0</v>
@@ -3784,17 +3881,19 @@
       <c r="J78" s="6">
         <v>1.5</v>
       </c>
-      <c r="K78" s="7"/>
+      <c r="K78" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D79" s="4">
         <v>5.0</v>
@@ -3813,17 +3912,19 @@
       <c r="J79" s="6">
         <v>1.5</v>
       </c>
-      <c r="K79" s="7"/>
+      <c r="K79" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D80" s="4">
         <v>5.0</v>
@@ -3842,17 +3943,19 @@
       <c r="J80" s="6">
         <v>1.5</v>
       </c>
-      <c r="K80" s="7"/>
+      <c r="K80" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D81" s="4">
         <v>5.0</v>
@@ -3866,18 +3969,20 @@
       <c r="I81" s="6">
         <v>0.0</v>
       </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D82" s="4">
         <v>6.0</v>
@@ -3900,17 +4005,19 @@
       <c r="J82" s="6">
         <v>0.0</v>
       </c>
-      <c r="K82" s="7"/>
+      <c r="K82" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>223</v>
       </c>
+      <c r="B83" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="C83" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D83" s="4">
         <v>6.0</v>
@@ -3933,17 +4040,19 @@
       <c r="J83" s="6">
         <v>1.2</v>
       </c>
-      <c r="K83" s="7"/>
+      <c r="K83" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>227</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D84" s="4">
         <v>6.0</v>
@@ -3966,17 +4075,19 @@
       <c r="J84" s="6">
         <v>1.2</v>
       </c>
-      <c r="K84" s="7"/>
+      <c r="K84" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>230</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="D85" s="4">
         <v>6.0</v>
@@ -3999,17 +4110,19 @@
       <c r="J85" s="6">
         <v>1.0</v>
       </c>
-      <c r="K85" s="7"/>
+      <c r="K85" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>232</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D86" s="4">
         <v>6.0</v>
@@ -4030,17 +4143,19 @@
       <c r="J86" s="6">
         <v>1.0</v>
       </c>
-      <c r="K86" s="7"/>
+      <c r="K86" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D87" s="4">
         <v>6.0</v>
@@ -4063,17 +4178,19 @@
       <c r="J87" s="6">
         <v>1.4</v>
       </c>
-      <c r="K87" s="7"/>
+      <c r="K87" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>237</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D88" s="4">
         <v>6.0</v>
@@ -4096,17 +4213,19 @@
       <c r="J88" s="6">
         <v>1.5</v>
       </c>
-      <c r="K88" s="7"/>
+      <c r="K88" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D89" s="4">
         <v>6.0</v>
@@ -4129,17 +4248,19 @@
       <c r="J89" s="6">
         <v>1.5</v>
       </c>
-      <c r="K89" s="7"/>
+      <c r="K89" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D90" s="4">
         <v>6.0</v>
@@ -4162,17 +4283,19 @@
       <c r="J90" s="6">
         <v>1.2</v>
       </c>
-      <c r="K90" s="7"/>
+      <c r="K90" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D91" s="4">
         <v>6.0</v>
@@ -4195,17 +4318,19 @@
       <c r="J91" s="6">
         <v>1.2</v>
       </c>
-      <c r="K91" s="7"/>
+      <c r="K91" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D92" s="4">
         <v>6.0</v>
@@ -4228,17 +4353,19 @@
       <c r="J92" s="6">
         <v>1.0</v>
       </c>
-      <c r="K92" s="7"/>
+      <c r="K92" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D93" s="4">
         <v>6.0</v>
@@ -4261,17 +4388,19 @@
       <c r="J93" s="6">
         <v>1.0</v>
       </c>
-      <c r="K93" s="7"/>
+      <c r="K93" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D94" s="4">
         <v>6.0</v>
@@ -4294,17 +4423,19 @@
       <c r="J94" s="6">
         <v>1.3</v>
       </c>
-      <c r="K94" s="7"/>
+      <c r="K94" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="4">
         <v>6.0</v>
@@ -4323,17 +4454,19 @@
       <c r="J95" s="6">
         <v>1.5</v>
       </c>
-      <c r="K95" s="7"/>
+      <c r="K95" s="20">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D96" s="4">
         <v>6.0</v>
@@ -4351,20 +4484,22 @@
       <c r="I96" s="6">
         <v>1.5</v>
       </c>
-      <c r="J96" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="K96" s="7"/>
+      <c r="J96" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D97" s="4">
         <v>7.0</v>
@@ -4384,20 +4519,22 @@
       <c r="I97" s="6">
         <v>1.3</v>
       </c>
-      <c r="J97" s="9">
+      <c r="J97" s="8">
         <v>1.25</v>
       </c>
-      <c r="K97" s="7"/>
+      <c r="K97" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D98" s="4">
         <v>7.0</v>
@@ -4417,20 +4554,22 @@
       <c r="I98" s="6">
         <v>0.0</v>
       </c>
-      <c r="J98" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="K98" s="7"/>
+      <c r="J98" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K98" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D99" s="4">
         <v>7.0</v>
@@ -4450,20 +4589,22 @@
       <c r="I99" s="6">
         <v>1.0</v>
       </c>
-      <c r="J99" s="9">
+      <c r="J99" s="8">
         <v>1.2</v>
       </c>
-      <c r="K99" s="7"/>
+      <c r="K99" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D100" s="4">
         <v>7.0</v>
@@ -4483,20 +4624,22 @@
       <c r="I100" s="6">
         <v>0.0</v>
       </c>
-      <c r="J100" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K100" s="7"/>
+      <c r="J100" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D101" s="4">
         <v>7.0</v>
@@ -4516,20 +4659,22 @@
       <c r="I101" s="6">
         <v>1.5</v>
       </c>
-      <c r="J101" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="K101" s="7"/>
+      <c r="J101" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K101" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D102" s="4">
         <v>7.0</v>
@@ -4549,20 +4694,22 @@
       <c r="I102" s="6">
         <v>1.2</v>
       </c>
-      <c r="J102" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="K102" s="7"/>
+      <c r="J102" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K102" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D103" s="4">
         <v>7.0</v>
@@ -4582,20 +4729,22 @@
       <c r="I103" s="6">
         <v>1.5</v>
       </c>
-      <c r="J103" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K103" s="7"/>
+      <c r="J103" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K103" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D104" s="4">
         <v>7.0</v>
@@ -4613,22 +4762,24 @@
         <v>1.0</v>
       </c>
       <c r="I104" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J104" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="J104" s="8">
         <v>1.25</v>
       </c>
-      <c r="K104" s="7"/>
+      <c r="K104" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D105" s="4">
         <v>7.0</v>
@@ -4648,20 +4799,22 @@
       <c r="I105" s="6">
         <v>1.25</v>
       </c>
-      <c r="J105" s="9">
+      <c r="J105" s="8">
         <v>1.25</v>
       </c>
-      <c r="K105" s="7"/>
+      <c r="K105" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D106" s="4">
         <v>7.0</v>
@@ -4681,20 +4834,22 @@
       <c r="I106" s="6">
         <v>1.0</v>
       </c>
-      <c r="J106" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="K106" s="7"/>
+      <c r="J106" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K106" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D107" s="4">
         <v>7.0</v>
@@ -4714,20 +4869,22 @@
       <c r="I107" s="6">
         <v>1.0</v>
       </c>
-      <c r="J107" s="9">
+      <c r="J107" s="8">
         <v>1.25</v>
       </c>
-      <c r="K107" s="7"/>
+      <c r="K107" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D108" s="4">
         <v>7.0</v>
@@ -4747,20 +4904,22 @@
       <c r="I108" s="6">
         <v>1.35</v>
       </c>
-      <c r="J108" s="9">
+      <c r="J108" s="8">
         <v>1.25</v>
       </c>
-      <c r="K108" s="7"/>
+      <c r="K108" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D109" s="4">
         <v>7.0</v>
@@ -4780,20 +4939,22 @@
       <c r="I109" s="6">
         <v>1.5</v>
       </c>
-      <c r="J109" s="9">
+      <c r="J109" s="8">
         <v>1.25</v>
       </c>
-      <c r="K109" s="7"/>
+      <c r="K109" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D110" s="4">
         <v>7.0</v>
@@ -4813,20 +4974,22 @@
       <c r="I110" s="6">
         <v>1.4</v>
       </c>
-      <c r="J110" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="K110" s="7"/>
+      <c r="J110" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K110" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D111" s="4">
         <v>7.0</v>
@@ -4846,20 +5009,22 @@
       <c r="I111" s="6">
         <v>1.4</v>
       </c>
-      <c r="J111" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="K111" s="7"/>
+      <c r="J111" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K111" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D112" s="4">
         <v>7.0</v>
@@ -4879,15 +5044,17 @@
       <c r="I112" s="6">
         <v>1.3</v>
       </c>
-      <c r="J112" s="9">
+      <c r="J112" s="8">
         <v>1.25</v>
       </c>
-      <c r="K112" s="7"/>
+      <c r="K112" s="6">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$K$112"/>
   <customSheetViews>
-    <customSheetView guid="{2A4F2C30-6AD4-48A9-92F0-FF6FAC4FB337}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BDEFDF5C-1F60-4238-9BF6-DD203271CDA5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$K$112"/>
     </customSheetView>
   </customSheetViews>

--- a/data/Семинары по общей экологии (биологи) 2021.xlsx
+++ b/data/Семинары по общей экологии (биологи) 2021.xlsx
@@ -7,17 +7,17 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$K$112</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_BDEFDF5C_1F60_4238_9BF6_DD203271CDA5_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CFBFC9CC_497E_457D_B9ED_D43B204E0ACF_.wvu.FilterData">'Лист1'!$E$1:$K$112</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BDEFDF5C-1F60-4238-9BF6-DD203271CDA5}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CFBFC9CC-497E-457D-B9ED-D43B204E0ACF}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="299">
   <si>
     <t>Family</t>
   </si>
@@ -52,7 +52,10 @@
     <t>1.12.21</t>
   </si>
   <si>
-    <t>08.12.12</t>
+    <t>08.12.21</t>
+  </si>
+  <si>
+    <t>15.12.21</t>
   </si>
   <si>
     <t>Беспалов</t>
@@ -442,21 +445,30 @@
     <t>st090747@student.spbu.ru</t>
   </si>
   <si>
+    <t>Байазыт</t>
+  </si>
+  <si>
+    <t>Камил-Джан</t>
+  </si>
+  <si>
+    <t>st089270@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Бйелогрлич</t>
+  </si>
+  <si>
+    <t>Наджа</t>
+  </si>
+  <si>
+    <t>st082207@ad.pu.ru</t>
+  </si>
+  <si>
     <t>Давыдова</t>
   </si>
   <si>
     <t>st090259@student.spbu.ru</t>
   </si>
   <si>
-    <t>Бйелогрлич</t>
-  </si>
-  <si>
-    <t>Наджа</t>
-  </si>
-  <si>
-    <t>st082207@ad.pu.ru</t>
-  </si>
-  <si>
     <t>Дубровский</t>
   </si>
   <si>
@@ -544,15 +556,6 @@
     <t>st089878@student.spbu.ru</t>
   </si>
   <si>
-    <t>Байазыт</t>
-  </si>
-  <si>
-    <t>Камил-Джан</t>
-  </si>
-  <si>
-    <t>st089270@student.spbu.ru</t>
-  </si>
-  <si>
     <t>Абылай</t>
   </si>
   <si>
@@ -577,6 +580,15 @@
     <t>st089553@student.spbu.ru</t>
   </si>
   <si>
+    <t>Ваганова</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>st090630@student.spbu.ru</t>
+  </si>
+  <si>
     <t>Гладова</t>
   </si>
   <si>
@@ -619,13 +631,13 @@
     <t>st087774@student.spbu.ru</t>
   </si>
   <si>
-    <t>Ваганова</t>
-  </si>
-  <si>
-    <t>Полина</t>
-  </si>
-  <si>
-    <t>st090630@student.spbu.ru</t>
+    <t>Озеров</t>
+  </si>
+  <si>
+    <t>Степан</t>
+  </si>
+  <si>
+    <t>st071537@student.spbu.ru</t>
   </si>
   <si>
     <t>Стрельцова</t>
@@ -671,15 +683,6 @@
   </si>
   <si>
     <t>st076517@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Озеров</t>
-  </si>
-  <si>
-    <t>Степан</t>
-  </si>
-  <si>
-    <t>st071537@student.spbu.ru</t>
   </si>
   <si>
     <t>Гавриленко</t>
@@ -982,7 +985,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,6 +1004,12 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1008,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1039,11 +1048,14 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1331,16 +1343,19 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
@@ -1369,13 +1384,13 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>1.0</v>
@@ -1395,22 +1410,20 @@
       <c r="I3" s="8">
         <v>1.25</v>
       </c>
-      <c r="J3" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4">
         <v>1.0</v>
@@ -1430,22 +1443,20 @@
       <c r="I4" s="8">
         <v>1.5</v>
       </c>
-      <c r="J4" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4">
         <v>1.0</v>
@@ -1474,13 +1485,13 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
         <v>1.0</v>
@@ -1509,13 +1520,13 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4">
         <v>1.0</v>
@@ -1544,13 +1555,13 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>1.0</v>
@@ -1576,16 +1587,19 @@
       <c r="K8" s="6">
         <v>1.5</v>
       </c>
+      <c r="L8" s="10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <v>1.0</v>
@@ -1614,13 +1628,13 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="10" t="s">
         <v>37</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="4">
         <v>1.0</v>
@@ -1634,26 +1648,22 @@
       <c r="G10" s="6">
         <v>1.5</v>
       </c>
-      <c r="H10" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="8">
         <v>1.5</v>
       </c>
-      <c r="J10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="11"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4">
         <v>1.0</v>
@@ -1682,13 +1692,13 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4">
         <v>1.0</v>
@@ -1717,13 +1727,13 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4">
         <v>1.0</v>
@@ -1743,22 +1753,20 @@
       <c r="I13" s="8">
         <v>1.0</v>
       </c>
-      <c r="J13" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4">
         <v>1.0</v>
@@ -1772,26 +1780,27 @@
       <c r="G14" s="6">
         <v>1.5</v>
       </c>
-      <c r="H14" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="8">
         <v>0.0</v>
       </c>
       <c r="J14" s="6">
         <v>1.0</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4">
         <v>1.0</v>
@@ -1820,13 +1829,13 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4">
         <v>1.0</v>
@@ -1849,17 +1858,17 @@
       <c r="J16" s="6">
         <v>1.0</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4">
         <v>1.0</v>
@@ -1882,17 +1891,17 @@
       <c r="J17" s="6">
         <v>1.0</v>
       </c>
-      <c r="K17" s="11"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4">
         <v>2.0</v>
@@ -1915,17 +1924,19 @@
       <c r="J18" s="6">
         <v>1.5</v>
       </c>
-      <c r="K18" s="11"/>
+      <c r="K18" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4">
         <v>2.0</v>
@@ -1948,17 +1959,19 @@
       <c r="J19" s="6">
         <v>1.0</v>
       </c>
-      <c r="K19" s="11"/>
+      <c r="K19" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4">
         <v>2.0</v>
@@ -1981,17 +1994,19 @@
       <c r="J20" s="6">
         <v>1.5</v>
       </c>
-      <c r="K20" s="11"/>
+      <c r="K20" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4">
         <v>2.0</v>
@@ -2014,17 +2029,19 @@
       <c r="J21" s="6">
         <v>1.5</v>
       </c>
-      <c r="K21" s="11"/>
+      <c r="K21" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4">
         <v>2.0</v>
@@ -2047,17 +2064,19 @@
       <c r="J22" s="6">
         <v>1.5</v>
       </c>
-      <c r="K22" s="11"/>
+      <c r="K22" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4">
         <v>2.0</v>
@@ -2080,17 +2099,19 @@
       <c r="J23" s="6">
         <v>1.5</v>
       </c>
-      <c r="K23" s="11"/>
+      <c r="K23" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4">
         <v>2.0</v>
@@ -2113,17 +2134,17 @@
       <c r="J24" s="6">
         <v>1.5</v>
       </c>
-      <c r="K24" s="11"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4">
         <v>2.0</v>
@@ -2140,23 +2161,21 @@
       <c r="H25" s="8">
         <v>1.25</v>
       </c>
-      <c r="I25" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6">
         <v>1.0</v>
       </c>
-      <c r="K25" s="11"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4">
         <v>2.0</v>
@@ -2179,17 +2198,17 @@
       <c r="J26" s="6">
         <v>1.5</v>
       </c>
-      <c r="K26" s="11"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4">
         <v>2.0</v>
@@ -2212,17 +2231,19 @@
       <c r="J27" s="6">
         <v>1.5</v>
       </c>
-      <c r="K27" s="11"/>
+      <c r="K27" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4">
         <v>2.0</v>
@@ -2233,9 +2254,7 @@
       <c r="F28" s="5">
         <v>1.5</v>
       </c>
-      <c r="G28" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6">
         <v>1.5</v>
       </c>
@@ -2245,17 +2264,17 @@
       <c r="J28" s="6">
         <v>1.5</v>
       </c>
-      <c r="K28" s="11"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4">
         <v>2.0</v>
@@ -2278,17 +2297,19 @@
       <c r="J29" s="6">
         <v>1.5</v>
       </c>
-      <c r="K29" s="11"/>
+      <c r="K29" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="4">
         <v>2.0</v>
@@ -2305,23 +2326,21 @@
       <c r="H30" s="8">
         <v>1.25</v>
       </c>
-      <c r="I30" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="I30" s="6"/>
       <c r="J30" s="6">
         <v>1.5</v>
       </c>
-      <c r="K30" s="11"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="4">
         <v>2.0</v>
@@ -2344,17 +2363,19 @@
       <c r="J31" s="6">
         <v>1.5</v>
       </c>
-      <c r="K31" s="11"/>
+      <c r="K31" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="4">
         <v>2.0</v>
@@ -2371,21 +2392,19 @@
       <c r="H32" s="8">
         <v>1.25</v>
       </c>
-      <c r="I32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="4">
         <v>2.0</v>
@@ -2396,29 +2415,27 @@
       <c r="F33" s="5">
         <v>1.0</v>
       </c>
-      <c r="G33" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6">
         <v>1.5</v>
       </c>
-      <c r="I33" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="I33" s="6"/>
       <c r="J33" s="6">
         <v>1.0</v>
       </c>
-      <c r="K33" s="11"/>
+      <c r="K33" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="4">
         <v>3.0</v>
@@ -2429,7 +2446,7 @@
       <c r="F34" s="5">
         <v>1.5</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <v>1.5</v>
       </c>
       <c r="H34" s="6">
@@ -2447,13 +2464,13 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="4">
         <v>3.0</v>
@@ -2464,7 +2481,7 @@
       <c r="F35" s="5">
         <v>1.0</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>1.5</v>
       </c>
       <c r="H35" s="6">
@@ -2473,22 +2490,18 @@
       <c r="I35" s="6">
         <v>1.5</v>
       </c>
-      <c r="J35" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="4">
         <v>3.0</v>
@@ -2499,7 +2512,7 @@
       <c r="F36" s="5">
         <v>1.2</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>1.5</v>
       </c>
       <c r="H36" s="6">
@@ -2517,13 +2530,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="4">
         <v>3.0</v>
@@ -2534,7 +2547,7 @@
       <c r="F37" s="5">
         <v>1.5</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <v>1.5</v>
       </c>
       <c r="H37" s="6">
@@ -2552,13 +2565,13 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="4">
         <v>3.0</v>
@@ -2569,7 +2582,7 @@
       <c r="F38" s="5">
         <v>1.2</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <v>1.5</v>
       </c>
       <c r="H38" s="6">
@@ -2587,13 +2600,13 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="4">
         <v>3.0</v>
@@ -2604,7 +2617,7 @@
       <c r="F39" s="5">
         <v>0.0</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <v>1.5</v>
       </c>
       <c r="H39" s="6">
@@ -2622,13 +2635,13 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="4">
         <v>3.0</v>
@@ -2639,7 +2652,7 @@
       <c r="F40" s="5">
         <v>1.2</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>1.0</v>
       </c>
       <c r="H40" s="6">
@@ -2657,13 +2670,13 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="4">
         <v>3.0</v>
@@ -2680,22 +2693,18 @@
       <c r="I41" s="6">
         <v>1.0</v>
       </c>
-      <c r="J41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="4">
         <v>3.0</v>
@@ -2706,7 +2715,7 @@
       <c r="F42" s="5">
         <v>1.2</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="10">
         <v>1.5</v>
       </c>
       <c r="H42" s="6">
@@ -2724,13 +2733,13 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="4">
         <v>3.0</v>
@@ -2741,12 +2750,10 @@
       <c r="F43" s="5">
         <v>1.0</v>
       </c>
-      <c r="G43" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="6">
         <v>1.0</v>
       </c>
@@ -2758,14 +2765,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
-        <v>126</v>
+      <c r="A44" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="4">
         <v>3.0</v>
@@ -2776,7 +2783,7 @@
       <c r="F44" s="5">
         <v>1.0</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="10">
         <v>1.5</v>
       </c>
       <c r="H44" s="6">
@@ -2794,13 +2801,13 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="4">
         <v>3.0</v>
@@ -2811,29 +2818,25 @@
       <c r="F45" s="5">
         <v>1.0</v>
       </c>
-      <c r="G45" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I45" s="11"/>
+      <c r="G45" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="12"/>
       <c r="J45" s="6">
         <v>1.0</v>
       </c>
-      <c r="K45" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="K45" s="6"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="4">
         <v>3.0</v>
@@ -2844,7 +2847,7 @@
       <c r="F46" s="5">
         <v>1.2</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="10">
         <v>1.5</v>
       </c>
       <c r="H46" s="6">
@@ -2862,13 +2865,13 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4">
         <v>3.0</v>
@@ -2879,31 +2882,27 @@
       <c r="F47" s="5">
         <v>1.3</v>
       </c>
-      <c r="G47" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="6">
         <v>1.0</v>
       </c>
       <c r="J47" s="6">
         <v>1.0</v>
       </c>
-      <c r="K47" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="K47" s="6"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="D48" s="4">
         <v>3.0</v>
@@ -2928,14 +2927,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
-        <v>138</v>
+      <c r="A49" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="4">
         <v>3.0</v>
@@ -2946,11 +2945,11 @@
       <c r="F49" s="5">
         <v>1.5</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="10">
         <v>1.5</v>
       </c>
       <c r="H49" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" s="6">
         <v>1.5</v>
@@ -2958,52 +2957,42 @@
       <c r="J49" s="6">
         <v>1.0</v>
       </c>
-      <c r="K49" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="K49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="A50" s="3" t="s">
         <v>142</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D50" s="4">
         <v>4.0</v>
       </c>
       <c r="E50" s="5">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F50" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="G50" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K50" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="D51" s="4">
         <v>4.0</v>
@@ -3014,27 +3003,23 @@
       <c r="F51" s="5">
         <v>1.0</v>
       </c>
-      <c r="G51" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="6">
         <v>1.0</v>
       </c>
-      <c r="K51" s="11"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D52" s="4">
         <v>4.0</v>
@@ -3043,7 +3028,7 @@
         <v>1.25</v>
       </c>
       <c r="F52" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G52" s="6">
         <v>1.0</v>
@@ -3055,19 +3040,21 @@
         <v>1.0</v>
       </c>
       <c r="J52" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="K52" s="11"/>
+        <v>1.0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D53" s="4">
         <v>4.0</v>
@@ -3082,7 +3069,7 @@
         <v>1.0</v>
       </c>
       <c r="H53" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="I53" s="6">
         <v>1.0</v>
@@ -3090,125 +3077,133 @@
       <c r="J53" s="6">
         <v>1.5</v>
       </c>
-      <c r="K53" s="11"/>
+      <c r="K53" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>151</v>
+        <v>26</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D54" s="4">
         <v>4.0</v>
       </c>
       <c r="E54" s="5">
-        <v>1.0</v>
+        <v>1.25</v>
       </c>
       <c r="F54" s="5">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G54" s="6">
         <v>1.0</v>
       </c>
       <c r="H54" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="I54" s="6">
-        <v>1.3</v>
+        <v>1.0</v>
       </c>
       <c r="J54" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K54" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>154</v>
+        <v>40</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D55" s="4">
         <v>4.0</v>
       </c>
       <c r="E55" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F55" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G55" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="H55" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="I55" s="6">
         <v>1.3</v>
       </c>
       <c r="J55" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="K55" s="11"/>
+        <v>1.0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="D56" s="4">
         <v>4.0</v>
       </c>
       <c r="E56" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F56" s="5">
         <v>1.5</v>
       </c>
       <c r="G56" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="H56" s="6">
         <v>1.5</v>
       </c>
       <c r="I56" s="6">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="J56" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K56" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>158</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D57" s="4">
         <v>4.0</v>
       </c>
       <c r="E57" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F57" s="5">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G57" s="6">
         <v>1.0</v>
@@ -3217,86 +3212,88 @@
         <v>1.5</v>
       </c>
       <c r="I57" s="6">
-        <v>1.3</v>
+        <v>1.0</v>
       </c>
       <c r="J57" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="K57" s="11"/>
+        <v>1.0</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>161</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D58" s="4">
         <v>4.0</v>
       </c>
       <c r="E58" s="5">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="F58" s="5">
-        <v>1.0</v>
+        <v>1.25</v>
       </c>
       <c r="G58" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H58" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="I58" s="6">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="J58" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K58" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="A59" s="3" t="s">
         <v>163</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D59" s="4">
         <v>4.0</v>
       </c>
       <c r="E59" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="G59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="6">
-        <v>1.3</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I59" s="6"/>
       <c r="J59" s="6">
         <v>1.0</v>
       </c>
-      <c r="K59" s="11"/>
+      <c r="K59" s="6"/>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D60" s="4">
         <v>4.0</v>
@@ -3307,29 +3304,25 @@
       <c r="F60" s="5">
         <v>1.25</v>
       </c>
-      <c r="G60" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H60" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="12"/>
       <c r="I60" s="6">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="J60" s="6">
         <v>1.0</v>
       </c>
-      <c r="K60" s="11"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>167</v>
+      <c r="A61" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="D61" s="4">
         <v>4.0</v>
@@ -3341,7 +3334,7 @@
         <v>1.25</v>
       </c>
       <c r="G61" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H61" s="6">
         <v>1.0</v>
@@ -3352,65 +3345,67 @@
       <c r="J61" s="6">
         <v>1.0</v>
       </c>
-      <c r="K61" s="11"/>
+      <c r="K61" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D62" s="4">
         <v>4.0</v>
       </c>
       <c r="E62" s="5">
-        <v>1.25</v>
+        <v>1.0</v>
       </c>
       <c r="F62" s="5">
         <v>1.25</v>
       </c>
-      <c r="G62" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="6">
         <v>1.0</v>
       </c>
       <c r="I62" s="6">
-        <v>1.3</v>
+        <v>1.0</v>
       </c>
       <c r="J62" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="K62" s="11"/>
+        <v>1.0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D63" s="4">
         <v>4.0</v>
       </c>
       <c r="E63" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F63" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G63" s="6">
-        <v>1.25</v>
+        <v>1.0</v>
       </c>
       <c r="H63" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="I63" s="6">
         <v>1.3</v>
@@ -3418,87 +3413,95 @@
       <c r="J63" s="6">
         <v>1.5</v>
       </c>
-      <c r="K63" s="11"/>
+      <c r="K63" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D64" s="4">
         <v>4.0</v>
       </c>
       <c r="E64" s="5">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="F64" s="5">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="G64" s="6">
-        <v>1.0</v>
+        <v>1.25</v>
       </c>
       <c r="H64" s="6">
         <v>1.5</v>
       </c>
       <c r="I64" s="6">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="J64" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K64" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="K64" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D65" s="4">
         <v>4.0</v>
       </c>
       <c r="E65" s="5">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="F65" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="G65" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="11"/>
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1.5</v>
+      </c>
       <c r="I65" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J65" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K65" s="11"/>
+        <v>1.0</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="14" t="s">
         <v>180</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="D66" s="4">
         <v>5.0</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
       <c r="G66" s="6">
         <v>1.5</v>
       </c>
@@ -3514,22 +3517,28 @@
       <c r="K66" s="6">
         <v>1.4</v>
       </c>
+      <c r="L66" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="M66" s="10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D67" s="4">
         <v>5.0</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="6">
         <v>1.5</v>
       </c>
@@ -3539,34 +3548,28 @@
       <c r="I67" s="6">
         <v>1.0</v>
       </c>
-      <c r="J67" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K67" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D68" s="4">
         <v>5.0</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="6">
         <v>1.5</v>
       </c>
-      <c r="H68" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="H68" s="6"/>
       <c r="I68" s="6">
         <v>1.5</v>
       </c>
@@ -3574,216 +3577,232 @@
         <v>1.5</v>
       </c>
       <c r="K68" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L68" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="M68" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D69" s="4">
         <v>5.0</v>
       </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
       <c r="G69" s="6">
         <v>1.0</v>
       </c>
       <c r="H69" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="I69" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J69" s="6">
-        <v>1.5</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="J69" s="6"/>
       <c r="K69" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L69" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="M69" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D70" s="4">
         <v>5.0</v>
       </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="11"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="6">
+        <v>1.0</v>
+      </c>
       <c r="H70" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I70" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J70" s="6">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="K70" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="M70" s="10">
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D71" s="4">
         <v>5.0</v>
       </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H71" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="I71" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J71" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="K71" s="6">
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="A72" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="D72" s="4">
         <v>5.0</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
       <c r="G72" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="H72" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="I72" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="J72" s="6">
         <v>1.5</v>
       </c>
       <c r="K72" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
+      </c>
+      <c r="L72" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="M72" s="10">
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="7" t="s">
         <v>199</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="D73" s="4">
         <v>5.0</v>
       </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
       <c r="G73" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="H73" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="I73" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="J73" s="6">
         <v>1.5</v>
       </c>
       <c r="K73" s="6">
-        <v>0.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="M73" s="10">
+        <v>1.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D74" s="4">
         <v>5.0</v>
       </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="6">
         <v>1.0</v>
       </c>
       <c r="H74" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="I74" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="J74" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K74" s="6">
-        <v>1.4</v>
+        <v>1.5</v>
+      </c>
+      <c r="K74" s="6"/>
+      <c r="L74" s="10">
+        <v>1.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="D75" s="4">
         <v>5.0</v>
       </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="6">
-        <v>1.5</v>
-      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="6">
         <v>1.0</v>
       </c>
       <c r="I75" s="6">
-        <v>1.3</v>
+        <v>6.0</v>
       </c>
       <c r="J75" s="6">
         <v>1.5</v>
@@ -3791,198 +3810,208 @@
       <c r="K75" s="6">
         <v>1.3</v>
       </c>
+      <c r="L75" s="10">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D76" s="4">
         <v>5.0</v>
       </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H76" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I76" s="6">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="J76" s="6">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="K76" s="6">
-        <v>0.0</v>
+        <v>1.3</v>
+      </c>
+      <c r="M76" s="10">
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D77" s="4">
         <v>5.0</v>
       </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
       <c r="G77" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="H77" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="I77" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K77" s="6">
-        <v>1.4</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D78" s="4">
         <v>5.0</v>
       </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
       <c r="G78" s="6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H78" s="6">
         <v>1.5</v>
       </c>
       <c r="I78" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J78" s="6">
-        <v>1.5</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="J78" s="6"/>
       <c r="K78" s="6">
         <v>1.4</v>
       </c>
+      <c r="L78" s="10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>215</v>
+        <v>102</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="D79" s="4">
         <v>5.0</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
       <c r="G79" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="H79" s="6">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="I79" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="J79" s="6">
         <v>1.5</v>
       </c>
       <c r="K79" s="6">
-        <v>1.0</v>
+        <v>1.4</v>
+      </c>
+      <c r="L79" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="M79" s="10">
+        <v>1.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D80" s="4">
         <v>5.0</v>
       </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="6">
         <v>1.0</v>
       </c>
-      <c r="H80" s="6">
-        <v>1.5</v>
-      </c>
+      <c r="H80" s="6"/>
       <c r="I80" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="J80" s="6">
         <v>1.5</v>
       </c>
       <c r="K80" s="6">
-        <v>1.3</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>220</v>
+        <v>57</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="D81" s="4">
         <v>5.0</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="6">
+        <v>1.0</v>
+      </c>
       <c r="H81" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="I81" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J81" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="J81" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K81" s="6">
         <v>1.3</v>
       </c>
+      <c r="L81" s="10">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>222</v>
+        <v>69</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="D82" s="4">
         <v>6.0</v>
@@ -3993,31 +4022,23 @@
       <c r="F82" s="5">
         <v>1.0</v>
       </c>
-      <c r="G82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J82" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
       <c r="K82" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="16" t="s">
         <v>225</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="D83" s="4">
         <v>6.0</v>
@@ -4046,13 +4067,13 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" s="4">
         <v>6.0</v>
@@ -4081,13 +4102,13 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D85" s="4">
         <v>6.0</v>
@@ -4116,19 +4137,19 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D86" s="4">
         <v>6.0</v>
       </c>
-      <c r="E86" s="17"/>
-      <c r="F86" s="19">
+      <c r="E86" s="18"/>
+      <c r="F86" s="20">
         <v>1.5</v>
       </c>
       <c r="G86" s="6">
@@ -4149,13 +4170,13 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D87" s="4">
         <v>6.0</v>
@@ -4184,13 +4205,13 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D88" s="4">
         <v>6.0</v>
@@ -4219,13 +4240,13 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D89" s="4">
         <v>6.0</v>
@@ -4254,13 +4275,13 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D90" s="4">
         <v>6.0</v>
@@ -4289,13 +4310,13 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D91" s="4">
         <v>6.0</v>
@@ -4324,13 +4345,13 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D92" s="4">
         <v>6.0</v>
@@ -4359,13 +4380,13 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D93" s="4">
         <v>6.0</v>
@@ -4394,13 +4415,13 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D94" s="4">
         <v>6.0</v>
@@ -4423,25 +4444,23 @@
       <c r="J94" s="6">
         <v>1.3</v>
       </c>
-      <c r="K94" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="K94" s="6"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D95" s="4">
         <v>6.0</v>
       </c>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
       <c r="G95" s="6">
         <v>1.2</v>
       </c>
@@ -4454,25 +4473,25 @@
       <c r="J95" s="6">
         <v>1.5</v>
       </c>
-      <c r="K95" s="20">
+      <c r="K95" s="21">
         <v>1.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D96" s="4">
         <v>6.0</v>
       </c>
-      <c r="E96" s="17"/>
-      <c r="F96" s="19">
+      <c r="E96" s="18"/>
+      <c r="F96" s="20">
         <v>1.0</v>
       </c>
       <c r="G96" s="6">
@@ -4487,19 +4506,17 @@
       <c r="J96" s="8">
         <v>1.0</v>
       </c>
-      <c r="K96" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="K96" s="6"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="4">
         <v>7.0</v>
@@ -4528,13 +4545,13 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D98" s="4">
         <v>7.0</v>
@@ -4551,9 +4568,7 @@
       <c r="H98" s="6">
         <v>1.5</v>
       </c>
-      <c r="I98" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="I98" s="6"/>
       <c r="J98" s="8">
         <v>1.5</v>
       </c>
@@ -4563,13 +4578,13 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D99" s="4">
         <v>7.0</v>
@@ -4598,13 +4613,13 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D100" s="4">
         <v>7.0</v>
@@ -4618,28 +4633,22 @@
       <c r="G100" s="6">
         <v>1.0</v>
       </c>
-      <c r="H100" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I100" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
       <c r="J100" s="8">
         <v>0.0</v>
       </c>
-      <c r="K100" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="K100" s="6"/>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="4">
         <v>7.0</v>
@@ -4662,19 +4671,17 @@
       <c r="J101" s="8">
         <v>1.5</v>
       </c>
-      <c r="K101" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="K101" s="6"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="4">
         <v>7.0</v>
@@ -4703,13 +4710,13 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D103" s="4">
         <v>7.0</v>
@@ -4735,16 +4742,19 @@
       <c r="K103" s="6">
         <v>1.5</v>
       </c>
+      <c r="L103" s="10">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D104" s="4">
         <v>7.0</v>
@@ -4773,13 +4783,13 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D105" s="4">
         <v>7.0</v>
@@ -4808,13 +4818,13 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="4">
         <v>7.0</v>
@@ -4843,13 +4853,13 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D107" s="4">
         <v>7.0</v>
@@ -4878,13 +4888,13 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>287</v>
+        <v>34</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="D108" s="4">
         <v>7.0</v>
@@ -4907,19 +4917,17 @@
       <c r="J108" s="8">
         <v>1.25</v>
       </c>
-      <c r="K108" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="K108" s="6"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="4">
         <v>7.0</v>
@@ -4945,16 +4953,19 @@
       <c r="K109" s="6">
         <v>1.0</v>
       </c>
+      <c r="L109" s="10">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D110" s="4">
         <v>7.0</v>
@@ -4983,13 +4994,13 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D111" s="4">
         <v>7.0</v>
@@ -5018,13 +5029,13 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D112" s="4">
         <v>7.0</v>
@@ -5052,17 +5063,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$112"/>
+  <autoFilter ref="$A$1:$K$112">
+    <sortState ref="A1:K112">
+      <sortCondition ref="D1:D112"/>
+      <sortCondition ref="A1:A112"/>
+    </sortState>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{BDEFDF5C-1F60-4238-9BF6-DD203271CDA5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CFBFC9CC-497E-457D-B9ED-D43B204E0ACF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$K$112"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C10"/>
     <hyperlink r:id="rId2" ref="C48"/>
-    <hyperlink r:id="rId3" ref="C55"/>
-    <hyperlink r:id="rId4" ref="C58"/>
+    <hyperlink r:id="rId3" ref="C56"/>
+    <hyperlink r:id="rId4" ref="C59"/>
     <hyperlink r:id="rId5" ref="C66"/>
     <hyperlink r:id="rId6" ref="C82"/>
     <hyperlink r:id="rId7" ref="C83"/>
